--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A6C1A3-852B-44CF-9C00-21519FB4D77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA9804-CB3A-496D-9351-4CAF2FF33DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32985" yWindow="1785" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31695" yWindow="2130" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -28,15 +28,1471 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="477">
+  <si>
+    <t>location_id</t>
+  </si>
+  <si>
+    <t>province</t>
+  </si>
+  <si>
+    <t>district</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>longitude (west)</t>
+  </si>
+  <si>
+    <t>latitude (south)</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>080101</t>
+  </si>
+  <si>
+    <t>Cusco</t>
+  </si>
+  <si>
+    <t>080102</t>
+  </si>
+  <si>
+    <t>Ccorca</t>
+  </si>
+  <si>
+    <t>080103</t>
+  </si>
+  <si>
+    <t>Poroy</t>
+  </si>
+  <si>
+    <t>080104</t>
+  </si>
+  <si>
+    <t>San Jerónimo</t>
+  </si>
+  <si>
+    <t>080105</t>
+  </si>
+  <si>
+    <t>San Sebastián</t>
+  </si>
+  <si>
+    <t>080106</t>
+  </si>
+  <si>
+    <t>Santiago</t>
+  </si>
+  <si>
+    <t>080107</t>
+  </si>
+  <si>
+    <t>Saylla</t>
+  </si>
+  <si>
+    <t>080108</t>
+  </si>
+  <si>
+    <t>Wanchaq</t>
+  </si>
+  <si>
+    <t>080201</t>
+  </si>
+  <si>
+    <t>Acomayo</t>
+  </si>
+  <si>
+    <t>080202</t>
+  </si>
+  <si>
+    <t>Acopia</t>
+  </si>
+  <si>
+    <t>080203</t>
+  </si>
+  <si>
+    <t>Acos</t>
+  </si>
+  <si>
+    <t>080204</t>
+  </si>
+  <si>
+    <t>Mosoc Llacta</t>
+  </si>
+  <si>
+    <t>080205</t>
+  </si>
+  <si>
+    <t>Pomacanchi</t>
+  </si>
+  <si>
+    <t>080206</t>
+  </si>
+  <si>
+    <t>Rondocán</t>
+  </si>
+  <si>
+    <t>080207</t>
+  </si>
+  <si>
+    <t>Sangarara</t>
+  </si>
+  <si>
+    <t>Ciudad</t>
+  </si>
+  <si>
+    <t>71º58ʹ36"</t>
+  </si>
+  <si>
+    <t>13º31ʹ09"</t>
+  </si>
+  <si>
+    <t>Pueblo</t>
+  </si>
+  <si>
+    <t>72º03ʹ33"</t>
+  </si>
+  <si>
+    <t>13º35ʹ05"</t>
+  </si>
+  <si>
+    <t>72º02ʹ41"</t>
+  </si>
+  <si>
+    <t>13º29ʹ40"</t>
+  </si>
+  <si>
+    <t>71º53ʹ01"</t>
+  </si>
+  <si>
+    <t>13º32ʹ40"</t>
+  </si>
+  <si>
+    <t>71º56ʹ13"</t>
+  </si>
+  <si>
+    <t>13º31ʹ49"</t>
+  </si>
+  <si>
+    <t>71º58ʹ59"</t>
+  </si>
+  <si>
+    <t>13º31ʹ33"</t>
+  </si>
+  <si>
+    <t>71º49ʹ40"</t>
+  </si>
+  <si>
+    <t>13º34ʹ12"</t>
+  </si>
+  <si>
+    <t>71º58ʹ00"</t>
+  </si>
+  <si>
+    <t>13º31ʹ17"</t>
+  </si>
+  <si>
+    <t>Villa</t>
+  </si>
+  <si>
+    <t>71º41ʹ01"</t>
+  </si>
+  <si>
+    <t>13º55ʹ10"</t>
+  </si>
+  <si>
+    <t>71º29ʹ36"</t>
+  </si>
+  <si>
+    <t>14º03ʹ27"</t>
+  </si>
+  <si>
+    <t>71º44ʹ17"</t>
+  </si>
+  <si>
+    <t>13º57ʹ04"</t>
+  </si>
+  <si>
+    <t>71º28ʹ23"</t>
+  </si>
+  <si>
+    <t>14º07ʹ13"</t>
+  </si>
+  <si>
+    <t>71º34ʹ27"</t>
+  </si>
+  <si>
+    <t>14º02ʹ01"</t>
+  </si>
+  <si>
+    <t>71º46ʹ55"</t>
+  </si>
+  <si>
+    <t>13º46ʹ46"</t>
+  </si>
+  <si>
+    <t>71º36ʹ12"</t>
+  </si>
+  <si>
+    <t>13º56ʹ50"</t>
+  </si>
+  <si>
+    <t>080301</t>
+  </si>
+  <si>
+    <t>Anta</t>
+  </si>
+  <si>
+    <t>72º08ʹ51"</t>
+  </si>
+  <si>
+    <t>13º27ʹ28"</t>
+  </si>
+  <si>
+    <t>080302</t>
+  </si>
+  <si>
+    <t>Ancahuasi</t>
+  </si>
+  <si>
+    <t>72º18ʹ03"</t>
+  </si>
+  <si>
+    <t>13º27ʹ26"</t>
+  </si>
+  <si>
+    <t>080303</t>
+  </si>
+  <si>
+    <t>Cachimayo</t>
+  </si>
+  <si>
+    <t>72º04ʹ08"</t>
+  </si>
+  <si>
+    <t>13º28ʹ40"</t>
+  </si>
+  <si>
+    <t>080304</t>
+  </si>
+  <si>
+    <t>Chinchaypujio</t>
+  </si>
+  <si>
+    <t>72º13ʹ59"</t>
+  </si>
+  <si>
+    <t>13º37ʹ47"</t>
+  </si>
+  <si>
+    <t>080305</t>
+  </si>
+  <si>
+    <t>Huarocondo</t>
+  </si>
+  <si>
+    <t>72º12ʹ27"</t>
+  </si>
+  <si>
+    <t>13º24ʹ57"</t>
+  </si>
+  <si>
+    <t>080306</t>
+  </si>
+  <si>
+    <t>Limatambo</t>
+  </si>
+  <si>
+    <t>72º26ʹ34"</t>
+  </si>
+  <si>
+    <t>13º28ʹ47"</t>
+  </si>
+  <si>
+    <t>080307</t>
+  </si>
+  <si>
+    <t>Mollepata</t>
+  </si>
+  <si>
+    <t>72º31ʹ40"</t>
+  </si>
+  <si>
+    <t>13º30ʹ33"</t>
+  </si>
+  <si>
+    <t>080308</t>
+  </si>
+  <si>
+    <t>Pucyura</t>
+  </si>
+  <si>
+    <t>72º06ʹ40"</t>
+  </si>
+  <si>
+    <t>13º28ʹ44"</t>
+  </si>
+  <si>
+    <t>080309</t>
+  </si>
+  <si>
+    <t>Zurite</t>
+  </si>
+  <si>
+    <t>72º15ʹ21"</t>
+  </si>
+  <si>
+    <t>13º27ʹ21"</t>
+  </si>
+  <si>
+    <t>080401</t>
+  </si>
+  <si>
+    <t>Calca</t>
+  </si>
+  <si>
+    <t>080402</t>
+  </si>
+  <si>
+    <t>Coya</t>
+  </si>
+  <si>
+    <t>080403</t>
+  </si>
+  <si>
+    <t>Lamay</t>
+  </si>
+  <si>
+    <t>080404</t>
+  </si>
+  <si>
+    <t>Lares</t>
+  </si>
+  <si>
+    <t>080405</t>
+  </si>
+  <si>
+    <t>Pisac</t>
+  </si>
+  <si>
+    <t>080406</t>
+  </si>
+  <si>
+    <t>San Salvador</t>
+  </si>
+  <si>
+    <t>080407</t>
+  </si>
+  <si>
+    <t>Taray</t>
+  </si>
+  <si>
+    <t>080408</t>
+  </si>
+  <si>
+    <t>Yanatile</t>
+  </si>
+  <si>
+    <t>71º57ʹ20"</t>
+  </si>
+  <si>
+    <t>13º19ʹ16"</t>
+  </si>
+  <si>
+    <t>71º53ʹ54"</t>
+  </si>
+  <si>
+    <t>13º23ʹ11"</t>
+  </si>
+  <si>
+    <t>71º55ʹ15"</t>
+  </si>
+  <si>
+    <t>13º21ʹ52"</t>
+  </si>
+  <si>
+    <t>13º06ʹ15"</t>
+  </si>
+  <si>
+    <t>71º51ʹ02"</t>
+  </si>
+  <si>
+    <t>13º25ʹ14"</t>
+  </si>
+  <si>
+    <t>71º46ʹ43"</t>
+  </si>
+  <si>
+    <t>13º29ʹ31"</t>
+  </si>
+  <si>
+    <t>71º52ʹ01"</t>
+  </si>
+  <si>
+    <t>13º25ʹ40"</t>
+  </si>
+  <si>
+    <t>72º16ʹ38"</t>
+  </si>
+  <si>
+    <t>12º40ʹ54"</t>
+  </si>
+  <si>
+    <t>080501</t>
+  </si>
+  <si>
+    <t>Yanaoca</t>
+  </si>
+  <si>
+    <t>080502</t>
+  </si>
+  <si>
+    <t>Checca</t>
+  </si>
+  <si>
+    <t>080503</t>
+  </si>
+  <si>
+    <t>Kunturkanki</t>
+  </si>
+  <si>
+    <t>080504</t>
+  </si>
+  <si>
+    <t>Langui</t>
+  </si>
+  <si>
+    <t>080505</t>
+  </si>
+  <si>
+    <t>Layo</t>
+  </si>
+  <si>
+    <t>080506</t>
+  </si>
+  <si>
+    <t>Pampamarca</t>
+  </si>
+  <si>
+    <t>080507</t>
+  </si>
+  <si>
+    <t>Quehue</t>
+  </si>
+  <si>
+    <t>080508</t>
+  </si>
+  <si>
+    <t>Túpac Amaru</t>
+  </si>
+  <si>
+    <t>71º25ʹ56"</t>
+  </si>
+  <si>
+    <t>14º12ʹ60"</t>
+  </si>
+  <si>
+    <t>71º23ʹ41"</t>
+  </si>
+  <si>
+    <t>14º28ʹ24"</t>
+  </si>
+  <si>
+    <t>71º18ʹ25"</t>
+  </si>
+  <si>
+    <t>14º32ʹ05"</t>
+  </si>
+  <si>
+    <t>71º16ʹ22"</t>
+  </si>
+  <si>
+    <t>14º25ʹ56"</t>
+  </si>
+  <si>
+    <t>71º09ʹ20"</t>
+  </si>
+  <si>
+    <t>14º29ʹ39"</t>
+  </si>
+  <si>
+    <t>71º27ʹ37"</t>
+  </si>
+  <si>
+    <t>14º08ʹ51"</t>
+  </si>
+  <si>
+    <t>71º27ʹ20"</t>
+  </si>
+  <si>
+    <t>14º22ʹ49"</t>
+  </si>
+  <si>
+    <t>71º28ʹ34"</t>
+  </si>
+  <si>
+    <t>14º09ʹ50"</t>
+  </si>
+  <si>
+    <t>Canas</t>
+  </si>
+  <si>
+    <t>080601</t>
+  </si>
+  <si>
+    <t>Sicuani</t>
+  </si>
+  <si>
+    <t>080602</t>
+  </si>
+  <si>
+    <t>Checacupe</t>
+  </si>
+  <si>
+    <t>080603</t>
+  </si>
+  <si>
+    <t>Combapata</t>
+  </si>
+  <si>
+    <t>080604</t>
+  </si>
+  <si>
+    <t>Marangani</t>
+  </si>
+  <si>
+    <t>080605</t>
+  </si>
+  <si>
+    <t>Pitumarca</t>
+  </si>
+  <si>
+    <t>080606</t>
+  </si>
+  <si>
+    <t>San Pablo</t>
+  </si>
+  <si>
+    <t>080607</t>
+  </si>
+  <si>
+    <t>San Pedro</t>
+  </si>
+  <si>
+    <t>080608</t>
+  </si>
+  <si>
+    <t>Tinta</t>
+  </si>
+  <si>
+    <t>71º13ʹ51"</t>
+  </si>
+  <si>
+    <t>14º14ʹ17"</t>
+  </si>
+  <si>
+    <t>71º27ʹ14"</t>
+  </si>
+  <si>
+    <t>14º01ʹ31"</t>
+  </si>
+  <si>
+    <t>71º25ʹ48"</t>
+  </si>
+  <si>
+    <t>14º06ʹ07"</t>
+  </si>
+  <si>
+    <t>71º10ʹ07"</t>
+  </si>
+  <si>
+    <t>14º21ʹ24"</t>
+  </si>
+  <si>
+    <t>71º25ʹ03"</t>
+  </si>
+  <si>
+    <t>13º58ʹ49"</t>
+  </si>
+  <si>
+    <t>71º18ʹ54"</t>
+  </si>
+  <si>
+    <t>14º12ʹ08"</t>
+  </si>
+  <si>
+    <t>71º20ʹ35"</t>
+  </si>
+  <si>
+    <t>14º11ʹ10"</t>
+  </si>
+  <si>
+    <t>71º24ʹ26"</t>
+  </si>
+  <si>
+    <t>14º08ʹ43"</t>
+  </si>
+  <si>
+    <t>Canchis</t>
+  </si>
+  <si>
+    <t>080701</t>
+  </si>
+  <si>
+    <t>Santo Tomás</t>
+  </si>
+  <si>
+    <t>080702</t>
+  </si>
+  <si>
+    <t>Capacmarca</t>
+  </si>
+  <si>
+    <t>080703</t>
+  </si>
+  <si>
+    <t>Chamaca</t>
+  </si>
+  <si>
+    <t>080704</t>
+  </si>
+  <si>
+    <t>Colquemarca</t>
+  </si>
+  <si>
+    <t>080705</t>
+  </si>
+  <si>
+    <t>Livitaca</t>
+  </si>
+  <si>
+    <t>080706</t>
+  </si>
+  <si>
+    <t>Llusco</t>
+  </si>
+  <si>
+    <t>080707</t>
+  </si>
+  <si>
+    <t>Quiñota</t>
+  </si>
+  <si>
+    <t>080708</t>
+  </si>
+  <si>
+    <t>Velille</t>
+  </si>
+  <si>
+    <t>Chumbivilcas</t>
+  </si>
+  <si>
+    <t>72º04ʹ56"</t>
+  </si>
+  <si>
+    <t>14º27ʹ12"</t>
+  </si>
+  <si>
+    <t>72º00ʹ09"</t>
+  </si>
+  <si>
+    <t>14º00ʹ26"</t>
+  </si>
+  <si>
+    <t>71º51ʹ08"</t>
+  </si>
+  <si>
+    <t>14º18ʹ09"</t>
+  </si>
+  <si>
+    <t>72º02ʹ24"</t>
+  </si>
+  <si>
+    <t>14º17ʹ07"</t>
+  </si>
+  <si>
+    <t>71º41ʹ23"</t>
+  </si>
+  <si>
+    <t>14º18ʹ46"</t>
+  </si>
+  <si>
+    <t>72º06ʹ49"</t>
+  </si>
+  <si>
+    <t>14º20ʹ15"</t>
+  </si>
+  <si>
+    <t>72º08ʹ19"</t>
+  </si>
+  <si>
+    <t>14º18ʹ40"</t>
+  </si>
+  <si>
+    <t>71º52ʹ52"</t>
+  </si>
+  <si>
+    <t>14º30ʹ31"</t>
+  </si>
+  <si>
+    <t>080801</t>
+  </si>
+  <si>
+    <t>Espinar</t>
+  </si>
+  <si>
+    <t>080802</t>
+  </si>
+  <si>
+    <t>Condoroma</t>
+  </si>
+  <si>
+    <t>080803</t>
+  </si>
+  <si>
+    <t>Coporaque</t>
+  </si>
+  <si>
+    <t>080804</t>
+  </si>
+  <si>
+    <t>Ocoruro</t>
+  </si>
+  <si>
+    <t>080805</t>
+  </si>
+  <si>
+    <t>Pallpata</t>
+  </si>
+  <si>
+    <t>080806</t>
+  </si>
+  <si>
+    <t>Pichigua</t>
+  </si>
+  <si>
+    <t>080807</t>
+  </si>
+  <si>
+    <t>Suyckutambo</t>
+  </si>
+  <si>
+    <t>080808</t>
+  </si>
+  <si>
+    <t>Alto Pichigua</t>
+  </si>
+  <si>
+    <t>71º24ʹ48"</t>
+  </si>
+  <si>
+    <t>14º47ʹ35"</t>
+  </si>
+  <si>
+    <t>71º08ʹ18"</t>
+  </si>
+  <si>
+    <t>15º18ʹ02"</t>
+  </si>
+  <si>
+    <t>71º31ʹ54"</t>
+  </si>
+  <si>
+    <t>14º48ʹ01"</t>
+  </si>
+  <si>
+    <t>71º07ʹ45"</t>
+  </si>
+  <si>
+    <t>15º03ʹ07"</t>
+  </si>
+  <si>
+    <t>71º12ʹ36"</t>
+  </si>
+  <si>
+    <t>14º53ʹ25"</t>
+  </si>
+  <si>
+    <t>71º24ʹ23"</t>
+  </si>
+  <si>
+    <t>14º40ʹ41"</t>
+  </si>
+  <si>
+    <t>71º38ʹ36"</t>
+  </si>
+  <si>
+    <t>15º00ʹ31"</t>
+  </si>
+  <si>
+    <t>71º15ʹ03"</t>
+  </si>
+  <si>
+    <t>14º46ʹ37"</t>
+  </si>
+  <si>
+    <t>080901</t>
+  </si>
+  <si>
+    <t>Santa Ana</t>
+  </si>
+  <si>
+    <t>080902</t>
+  </si>
+  <si>
+    <t>Echarate</t>
+  </si>
+  <si>
+    <t>080903</t>
+  </si>
+  <si>
+    <t>Huayopata</t>
+  </si>
+  <si>
+    <t>080904</t>
+  </si>
+  <si>
+    <t>Maranura</t>
+  </si>
+  <si>
+    <t>080905</t>
+  </si>
+  <si>
+    <t>Ocobamba</t>
+  </si>
+  <si>
+    <t>080906</t>
+  </si>
+  <si>
+    <t>Quellouno</t>
+  </si>
+  <si>
+    <t>080907</t>
+  </si>
+  <si>
+    <t>Kimbiri</t>
+  </si>
+  <si>
+    <t>080908</t>
+  </si>
+  <si>
+    <t>Santa Teresa</t>
+  </si>
+  <si>
+    <t>080909</t>
+  </si>
+  <si>
+    <t>Vilcabamba</t>
+  </si>
+  <si>
+    <t>080910</t>
+  </si>
+  <si>
+    <t>Pichari</t>
+  </si>
+  <si>
+    <t>080911</t>
+  </si>
+  <si>
+    <t>Inkawasi</t>
+  </si>
+  <si>
+    <t>080912</t>
+  </si>
+  <si>
+    <t>Villa Virgen</t>
+  </si>
+  <si>
+    <t>080913</t>
+  </si>
+  <si>
+    <t>Villa Kintiarina</t>
+  </si>
+  <si>
+    <t>080914</t>
+  </si>
+  <si>
+    <t>Megantoni</t>
+  </si>
+  <si>
+    <t>080915</t>
+  </si>
+  <si>
+    <t>Kumpirushiato 1/</t>
+  </si>
+  <si>
+    <t>080916</t>
+  </si>
+  <si>
+    <t>Cielo Punco 1/</t>
+  </si>
+  <si>
+    <t>080917</t>
+  </si>
+  <si>
+    <t>Manitea 1/ 4/</t>
+  </si>
+  <si>
+    <t>080918</t>
+  </si>
+  <si>
+    <t>Unión Ashaninka 1/</t>
+  </si>
+  <si>
+    <t>La Convencion</t>
+  </si>
+  <si>
+    <t>72º41ʹ36"</t>
+  </si>
+  <si>
+    <t>12º51ʹ46"</t>
+  </si>
+  <si>
+    <t>72º34ʹ34"</t>
+  </si>
+  <si>
+    <t>12º46ʹ05"</t>
+  </si>
+  <si>
+    <t>72º33ʹ16"</t>
+  </si>
+  <si>
+    <t>13º00ʹ17"</t>
+  </si>
+  <si>
+    <t>72º39ʹ53"</t>
+  </si>
+  <si>
+    <t>12º57ʹ46"</t>
+  </si>
+  <si>
+    <t>72º26ʹ50"</t>
+  </si>
+  <si>
+    <t>12º52ʹ18"</t>
+  </si>
+  <si>
+    <t>72º33ʹ26"</t>
+  </si>
+  <si>
+    <t>12º38ʹ12"</t>
+  </si>
+  <si>
+    <t>73º47ʹ21"</t>
+  </si>
+  <si>
+    <t>12º37ʹ12"</t>
+  </si>
+  <si>
+    <t>72º35ʹ38"</t>
+  </si>
+  <si>
+    <t>13º07ʹ50"</t>
+  </si>
+  <si>
+    <t>72º56ʹ04"</t>
+  </si>
+  <si>
+    <t>13º03ʹ47"</t>
+  </si>
+  <si>
+    <t>73º49ʹ45"</t>
+  </si>
+  <si>
+    <t>12º31ʹ10"</t>
+  </si>
+  <si>
+    <t>73º15ʹ56"</t>
+  </si>
+  <si>
+    <t>13º17ʹ24"</t>
+  </si>
+  <si>
+    <t>73º30ʹ46"</t>
+  </si>
+  <si>
+    <t>13º00ʹ10"</t>
+  </si>
+  <si>
+    <t>73º31ʹ42"</t>
+  </si>
+  <si>
+    <t>12º55ʹ08"</t>
+  </si>
+  <si>
+    <t>72º56ʹ47"</t>
+  </si>
+  <si>
+    <t>11º43ʹ13"</t>
+  </si>
+  <si>
+    <t>73º12ʹ15"</t>
+  </si>
+  <si>
+    <t>73º36ʹ16"</t>
+  </si>
+  <si>
+    <t>12º48ʹ29"</t>
+  </si>
+  <si>
+    <t>73º37ʹ21"</t>
+  </si>
+  <si>
+    <t>12º47ʹ33"</t>
+  </si>
+  <si>
+    <t>73º56ʹ24''</t>
+  </si>
+  <si>
+    <t> 12º19ʹ27''</t>
+  </si>
+  <si>
+    <t>081001</t>
+  </si>
+  <si>
+    <t>Paruro</t>
+  </si>
+  <si>
+    <t>081002</t>
+  </si>
+  <si>
+    <t>Accha</t>
+  </si>
+  <si>
+    <t>081003</t>
+  </si>
+  <si>
+    <t>Ccapi</t>
+  </si>
+  <si>
+    <t>081004</t>
+  </si>
+  <si>
+    <t>Colcha</t>
+  </si>
+  <si>
+    <t>081005</t>
+  </si>
+  <si>
+    <t>Huanoquite</t>
+  </si>
+  <si>
+    <t>081006</t>
+  </si>
+  <si>
+    <t>Omacha</t>
+  </si>
+  <si>
+    <t>081007</t>
+  </si>
+  <si>
+    <t>Paccaritambo</t>
+  </si>
+  <si>
+    <t>081008</t>
+  </si>
+  <si>
+    <t>Pillpinto</t>
+  </si>
+  <si>
+    <t>081009</t>
+  </si>
+  <si>
+    <t>Yaurisque</t>
+  </si>
+  <si>
+    <t>71º50ʹ52"</t>
+  </si>
+  <si>
+    <t>13º45ʹ42"</t>
+  </si>
+  <si>
+    <t>71º49ʹ53"</t>
+  </si>
+  <si>
+    <t>13º58ʹ16"</t>
+  </si>
+  <si>
+    <t>72º04ʹ57"</t>
+  </si>
+  <si>
+    <t>13º51ʹ11"</t>
+  </si>
+  <si>
+    <t>71º48ʹ12"</t>
+  </si>
+  <si>
+    <t>13º51ʹ07"</t>
+  </si>
+  <si>
+    <t>72º01ʹ05"</t>
+  </si>
+  <si>
+    <t>13º40ʹ55"</t>
+  </si>
+  <si>
+    <t>14º04ʹ10"</t>
+  </si>
+  <si>
+    <t>71º57ʹ24"</t>
+  </si>
+  <si>
+    <t>13º45ʹ23"</t>
+  </si>
+  <si>
+    <t>71º45ʹ38"</t>
+  </si>
+  <si>
+    <t>13º57ʹ13"</t>
+  </si>
+  <si>
+    <t>71º55ʹ14"</t>
+  </si>
+  <si>
+    <t>13º39ʹ55"</t>
+  </si>
+  <si>
+    <t>081101</t>
+  </si>
+  <si>
+    <t>Paucartambo</t>
+  </si>
+  <si>
+    <t>081102</t>
+  </si>
+  <si>
+    <t>Caicay</t>
+  </si>
+  <si>
+    <t>081103</t>
+  </si>
+  <si>
+    <t>Challabamba</t>
+  </si>
+  <si>
+    <t>081104</t>
+  </si>
+  <si>
+    <t>Colquepata</t>
+  </si>
+  <si>
+    <t>081105</t>
+  </si>
+  <si>
+    <t>Huancarani</t>
+  </si>
+  <si>
+    <t>081106</t>
+  </si>
+  <si>
+    <t>Kosñipata</t>
+  </si>
+  <si>
+    <t>71º35ʹ48"</t>
+  </si>
+  <si>
+    <t>13º19ʹ04"</t>
+  </si>
+  <si>
+    <t>71º41ʹ48"</t>
+  </si>
+  <si>
+    <t>13º35ʹ50"</t>
+  </si>
+  <si>
+    <t>71º38ʹ55"</t>
+  </si>
+  <si>
+    <t>13º12ʹ54"</t>
+  </si>
+  <si>
+    <t>71º40ʹ25"</t>
+  </si>
+  <si>
+    <t>13º21ʹ37"</t>
+  </si>
+  <si>
+    <t>71º39ʹ16"</t>
+  </si>
+  <si>
+    <t>13º30ʹ12"</t>
+  </si>
+  <si>
+    <t>71º24ʹ12"</t>
+  </si>
+  <si>
+    <t>12º54ʹ34"</t>
+  </si>
+  <si>
+    <t>081201</t>
+  </si>
+  <si>
+    <t>Urcos</t>
+  </si>
+  <si>
+    <t>081202</t>
+  </si>
+  <si>
+    <t>Andahuaylillas</t>
+  </si>
+  <si>
+    <t>081203</t>
+  </si>
+  <si>
+    <t>Camanti</t>
+  </si>
+  <si>
+    <t>081204</t>
+  </si>
+  <si>
+    <t>Ccarhuayo</t>
+  </si>
+  <si>
+    <t>081205</t>
+  </si>
+  <si>
+    <t>Ccatca</t>
+  </si>
+  <si>
+    <t>081206</t>
+  </si>
+  <si>
+    <t>Cusipata</t>
+  </si>
+  <si>
+    <t>081207</t>
+  </si>
+  <si>
+    <t>Huaro</t>
+  </si>
+  <si>
+    <t>081208</t>
+  </si>
+  <si>
+    <t>Lucre</t>
+  </si>
+  <si>
+    <t>081209</t>
+  </si>
+  <si>
+    <t>Marcapata</t>
+  </si>
+  <si>
+    <t>081210</t>
+  </si>
+  <si>
+    <t>Ocongate</t>
+  </si>
+  <si>
+    <t>081211</t>
+  </si>
+  <si>
+    <t>Oropesa</t>
+  </si>
+  <si>
+    <t>081212</t>
+  </si>
+  <si>
+    <t>Quiquijana</t>
+  </si>
+  <si>
+    <t>71º37ʹ31"</t>
+  </si>
+  <si>
+    <t>13º41ʹ16"</t>
+  </si>
+  <si>
+    <t>71º40ʹ40"</t>
+  </si>
+  <si>
+    <t>13º40ʹ24"</t>
+  </si>
+  <si>
+    <t>70º45ʹ16"</t>
+  </si>
+  <si>
+    <t>13º13ʹ53"</t>
+  </si>
+  <si>
+    <t>71º23ʹ59"</t>
+  </si>
+  <si>
+    <t>13º35ʹ43"</t>
+  </si>
+  <si>
+    <t>71º33ʹ49"</t>
+  </si>
+  <si>
+    <t>13º36ʹ19"</t>
+  </si>
+  <si>
+    <t>71º30ʹ9"</t>
+  </si>
+  <si>
+    <t>13º54ʹ25"</t>
+  </si>
+  <si>
+    <t>71º38ʹ25"</t>
+  </si>
+  <si>
+    <t>13º41ʹ25"</t>
+  </si>
+  <si>
+    <t>71º44ʹ12"</t>
+  </si>
+  <si>
+    <t>13º38ʹ2"</t>
+  </si>
+  <si>
+    <t>70º58ʹ30"</t>
+  </si>
+  <si>
+    <t>13º35ʹ30"</t>
+  </si>
+  <si>
+    <t>71º23ʹ18"</t>
+  </si>
+  <si>
+    <t>13º37ʹ36"</t>
+  </si>
+  <si>
+    <t>71º45ʹ47"</t>
+  </si>
+  <si>
+    <t>13º35ʹ40"</t>
+  </si>
+  <si>
+    <t>71º32ʹ33"</t>
+  </si>
+  <si>
+    <t>13º49ʹ21"</t>
+  </si>
+  <si>
+    <t>Quispicanchi</t>
+  </si>
+  <si>
+    <t>081301</t>
+  </si>
+  <si>
+    <t>Urubamba</t>
+  </si>
+  <si>
+    <t>081302</t>
+  </si>
+  <si>
+    <t>Chinchero</t>
+  </si>
+  <si>
+    <t>081303</t>
+  </si>
+  <si>
+    <t>Huayllabamba</t>
+  </si>
+  <si>
+    <t>081304</t>
+  </si>
+  <si>
+    <t>Machupicchu</t>
+  </si>
+  <si>
+    <t>081305</t>
+  </si>
+  <si>
+    <t>Maras</t>
+  </si>
+  <si>
+    <t>081306</t>
+  </si>
+  <si>
+    <t>Ollantaytambo</t>
+  </si>
+  <si>
+    <t>081307</t>
+  </si>
+  <si>
+    <t>Yucay</t>
+  </si>
+  <si>
+    <t>72º06ʹ58"</t>
+  </si>
+  <si>
+    <t>13º18ʹ20"</t>
+  </si>
+  <si>
+    <t>72º02ʹ56"</t>
+  </si>
+  <si>
+    <t>13º23ʹ31"</t>
+  </si>
+  <si>
+    <t>72º03ʹ54"</t>
+  </si>
+  <si>
+    <t>13º20ʹ17"</t>
+  </si>
+  <si>
+    <t>72º31ʹ32"</t>
+  </si>
+  <si>
+    <t>13º09ʹ15"</t>
+  </si>
+  <si>
+    <t>72º09ʹ23"</t>
+  </si>
+  <si>
+    <t>13º19ʹ57"</t>
+  </si>
+  <si>
+    <t>72º15ʹ48"</t>
+  </si>
+  <si>
+    <t>13º15ʹ32"</t>
+  </si>
+  <si>
+    <t>72º05ʹ02"</t>
+  </si>
+  <si>
+    <t>13º19ʹ18"</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#\ ##0"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,7 +1503,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -55,12 +1511,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -341,14 +1821,4118 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4">
+        <v>3439</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="4">
+        <v>119148</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="4">
+        <v>3674.7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="4">
+        <v>2410</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="4">
+        <v>3508.1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="4">
+        <v>13953</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3288.7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H5" s="4">
+        <v>77751</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3301</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H6" s="4">
+        <v>144460</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3463.7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="4">
+        <v>106739</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3179</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H8" s="4">
+        <v>9462</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3423.8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="4">
+        <v>61530</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3235.3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="4">
+        <v>4523</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4">
+        <v>3723.7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="4">
+        <v>3121</v>
+      </c>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4">
+        <v>3105.5</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2328</v>
+      </c>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3820</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H13" s="4">
+        <v>983</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4">
+        <v>3708.5</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="4">
+        <v>7515</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="4">
+        <v>3393.5</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="4">
+        <v>3788.1</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4">
+        <v>3362</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="4">
+        <v>3363</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H17" s="4">
+        <v>26916</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="4">
+        <v>3479.2</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" s="4">
+        <v>7900</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="4">
+        <v>3453.6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2854</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E20" s="4">
+        <v>3106.4</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4275</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="4">
+        <v>3353.1</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="4">
+        <v>4486</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2632.9</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="H22" s="4">
+        <v>7567</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="4">
+        <v>2863.6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="H23" s="4">
+        <v>3580</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="4">
+        <v>3384.3</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="4">
+        <v>3113</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="4">
+        <v>3424.1</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H25" s="4">
+        <v>3764</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="4">
+        <v>2955.2</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" s="4">
+        <v>23969</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4">
+        <v>2969.9</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="4">
+        <v>3620</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2959.9</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="4">
+        <v>6029</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4">
+        <v>3193.4</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="H29" s="4">
+        <v>6284</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2986</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="H30" s="4">
+        <v>11885</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="4">
+        <v>3011.5</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="4">
+        <v>6281</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2991.1</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="H32" s="4">
+        <v>4947</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="4">
+        <v>1147.7</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="H33" s="4">
+        <v>9228</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="4">
+        <v>3925</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="H34" s="4">
+        <v>9239</v>
+      </c>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="4">
+        <v>3833.5</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="H35" s="4">
+        <v>5435</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E36" s="4">
+        <v>3960.9</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5151</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="4">
+        <v>3967.4</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H37" s="4">
+        <v>2043</v>
+      </c>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="4">
+        <v>3996.8</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="4">
+        <v>5475</v>
+      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E39" s="4">
+        <v>3819.6</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1874</v>
+      </c>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3793.6</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="H40" s="4">
+        <v>2590</v>
+      </c>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E41" s="4">
+        <v>3809.1</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="H41" s="4">
+        <v>2582</v>
+      </c>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E42" s="4">
+        <v>3593.3</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H42" s="4">
+        <v>65864</v>
+      </c>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="4">
+        <v>3459.1</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H43" s="4">
+        <v>5253</v>
+      </c>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3499.7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="4">
+        <v>4995</v>
+      </c>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E45" s="4">
+        <v>3719.9</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="H45" s="4">
+        <v>10280</v>
+      </c>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3587</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="H46" s="4">
+        <v>8538</v>
+      </c>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E47" s="4">
+        <v>3500.9</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="4">
+        <v>4395</v>
+      </c>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3515.2</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="H48" s="4">
+        <v>2780</v>
+      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" s="4">
+        <v>3496</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="H49" s="4">
+        <v>5453</v>
+      </c>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+    </row>
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E50" s="4">
+        <v>3675.9</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="4">
+        <v>22624</v>
+      </c>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+    </row>
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="4">
+        <v>3563.2</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="H51" s="4">
+        <v>4064</v>
+      </c>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+    </row>
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E52" s="4">
+        <v>3778.8</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="H52" s="4">
+        <v>6359</v>
+      </c>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+    </row>
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E53" s="4">
+        <v>3606</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="H53" s="4">
+        <v>6923</v>
+      </c>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+    </row>
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E54" s="4">
+        <v>3774.2</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="H54" s="4">
+        <v>13009</v>
+      </c>
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+      <c r="R54" s="1"/>
+      <c r="S54" s="1"/>
+      <c r="T54" s="1"/>
+    </row>
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E55" s="4">
+        <v>3521.9</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="H55" s="4">
+        <v>4083</v>
+      </c>
+      <c r="J55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+      <c r="R55" s="1"/>
+      <c r="S55" s="1"/>
+      <c r="T55" s="1"/>
+    </row>
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="4">
+        <v>3607.2</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="H56" s="4">
+        <v>3978</v>
+      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+      <c r="R56" s="1"/>
+      <c r="S56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D57" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E57" s="4">
+        <v>3765.5</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="H57" s="4">
+        <v>8587</v>
+      </c>
+      <c r="J57" s="1"/>
+      <c r="K57" s="1"/>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="1"/>
+      <c r="T57" s="1"/>
+    </row>
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E58" s="4">
+        <v>3975.5</v>
+      </c>
+      <c r="F58" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="H58" s="4">
+        <v>40781</v>
+      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="1"/>
+      <c r="T58" s="1"/>
+    </row>
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4679.3999999999996</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="H59" s="4">
+        <v>824</v>
+      </c>
+      <c r="J59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
+    </row>
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="4">
+        <v>3970.1</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="H60" s="4">
+        <v>8688</v>
+      </c>
+      <c r="J60" s="1"/>
+      <c r="K60" s="1"/>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="1"/>
+      <c r="T60" s="1"/>
+    </row>
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E61" s="4">
+        <v>4104.3</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H61" s="4">
+        <v>902</v>
+      </c>
+      <c r="J61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="1"/>
+      <c r="T61" s="1"/>
+    </row>
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E62" s="4">
+        <v>4027.1</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="H62" s="4">
+        <v>5059</v>
+      </c>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+    </row>
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E63" s="4">
+        <v>3902.2</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="H63" s="4">
+        <v>2663</v>
+      </c>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+    </row>
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E64" s="4">
+        <v>4123.8</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="H64" s="4">
+        <v>1371</v>
+      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+    </row>
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E65" s="4">
+        <v>3998.6</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="H65" s="4">
+        <v>1894</v>
+      </c>
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+    </row>
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E66" s="4">
+        <v>1086</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="H66" s="4">
+        <v>29456</v>
+      </c>
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E67" s="4">
+        <v>1059.3</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" s="4">
+        <v>17871</v>
+      </c>
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+      <c r="R67" s="1"/>
+      <c r="S67" s="1"/>
+      <c r="T67" s="1"/>
+    </row>
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E68" s="4">
+        <v>1596.5</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" s="4">
+        <v>5418</v>
+      </c>
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
+      <c r="S68" s="1"/>
+      <c r="T68" s="1"/>
+    </row>
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E69" s="4">
+        <v>1140.5</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="H69" s="4">
+        <v>4930</v>
+      </c>
+      <c r="J69" s="1"/>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
+      <c r="T69" s="1"/>
+    </row>
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E70" s="4">
+        <v>1478.5</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="H70" s="4">
+        <v>5861</v>
+      </c>
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+      <c r="R70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+    </row>
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E71" s="4">
+        <v>784.1</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H71" s="4">
+        <v>15091</v>
+      </c>
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+      <c r="R71" s="1"/>
+      <c r="S71" s="1"/>
+      <c r="T71" s="1"/>
+    </row>
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E72" s="4">
+        <v>589.9</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="H72" s="4">
+        <v>14056</v>
+      </c>
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+      <c r="R72" s="1"/>
+      <c r="S72" s="1"/>
+      <c r="T72" s="1"/>
+    </row>
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E73" s="4">
+        <v>1571.9</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="H73" s="4">
+        <v>6912</v>
+      </c>
+      <c r="J73" s="1"/>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+      <c r="R73" s="1"/>
+      <c r="S73" s="1"/>
+      <c r="T73" s="1"/>
+    </row>
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E74" s="4">
+        <v>2656.3</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H74" s="4">
+        <v>9976</v>
+      </c>
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+      <c r="R74" s="1"/>
+      <c r="S74" s="1"/>
+      <c r="T74" s="1"/>
+    </row>
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A75" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E75" s="4">
+        <v>596</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="H75" s="4">
+        <v>24006</v>
+      </c>
+      <c r="J75" s="1"/>
+      <c r="K75" s="1"/>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+      <c r="R75" s="1"/>
+      <c r="S75" s="1"/>
+      <c r="T75" s="1"/>
+    </row>
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E76" s="4">
+        <v>1770.5</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G76" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="H76" s="4">
+        <v>5166</v>
+      </c>
+      <c r="J76" s="1"/>
+      <c r="K76" s="1"/>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+      <c r="R76" s="1"/>
+      <c r="S76" s="1"/>
+      <c r="T76" s="1"/>
+    </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E77" s="4">
+        <v>742.2</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="H77" s="4">
+        <v>2458</v>
+      </c>
+      <c r="J77" s="1"/>
+      <c r="K77" s="1"/>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+      <c r="R77" s="1"/>
+      <c r="S77" s="1"/>
+      <c r="T77" s="1"/>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E78" s="4">
+        <v>703.7</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H78" s="4">
+        <v>2420</v>
+      </c>
+      <c r="J78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+      <c r="R78" s="1"/>
+      <c r="S78" s="1"/>
+      <c r="T78" s="1"/>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E79" s="4">
+        <v>355</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="H79" s="4">
+        <v>7394</v>
+      </c>
+      <c r="J79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+      <c r="R79" s="1"/>
+      <c r="S79" s="1"/>
+      <c r="T79" s="1"/>
+    </row>
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E80" s="4">
+        <v>671</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="G80" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H80" s="4">
+        <v>5801</v>
+      </c>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+      <c r="R80" s="1"/>
+      <c r="S80" s="1"/>
+      <c r="T80" s="1"/>
+    </row>
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A81" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="4">
+        <v>662</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="H81" s="4">
+        <v>2263</v>
+      </c>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+    </row>
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A82" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="4">
+        <v>656</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H82" s="4">
+        <v>3626</v>
+      </c>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+    </row>
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+      <c r="A83" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="4">
+        <v>529</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="H83" s="4">
+        <v>5899</v>
+      </c>
+      <c r="J83" s="1"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+      <c r="R83" s="1"/>
+      <c r="S83" s="1"/>
+      <c r="T83" s="1"/>
+    </row>
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A84" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E84" s="4">
+        <v>3085.6</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="H84" s="4">
+        <v>3477</v>
+      </c>
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+    </row>
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E85" s="4">
+        <v>3600.6</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="H85" s="4">
+        <v>3041</v>
+      </c>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+      <c r="T85" s="1"/>
+    </row>
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A86" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E86" s="4">
+        <v>3227.1</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G86" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="H86" s="4">
+        <v>3036</v>
+      </c>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+      <c r="R86" s="1"/>
+      <c r="S86" s="1"/>
+      <c r="T86" s="1"/>
+    </row>
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A87" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E87" s="4">
+        <v>2826.6</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="G87" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="H87" s="4">
+        <v>905</v>
+      </c>
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+      <c r="R87" s="1"/>
+      <c r="S87" s="1"/>
+      <c r="T87" s="1"/>
+    </row>
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A88" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E88" s="4">
+        <v>3391.3</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="H88" s="4">
+        <v>5025</v>
+      </c>
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+      <c r="R88" s="1"/>
+      <c r="S88" s="1"/>
+      <c r="T88" s="1"/>
+    </row>
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A89" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E89" s="4">
+        <v>3887.1</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="H89" s="4">
+        <v>5771</v>
+      </c>
+      <c r="J89" s="1"/>
+      <c r="K89" s="1"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+      <c r="R89" s="1"/>
+      <c r="S89" s="1"/>
+      <c r="T89" s="1"/>
+    </row>
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A90" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90" s="4">
+        <v>3602.1</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="H90" s="4">
+        <v>2052</v>
+      </c>
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+      <c r="R90" s="1"/>
+      <c r="S90" s="1"/>
+      <c r="T90" s="1"/>
+    </row>
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E91" s="4">
+        <v>2869.3</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="H91" s="4">
+        <v>1000</v>
+      </c>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="1"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+      <c r="R91" s="1"/>
+      <c r="S91" s="1"/>
+      <c r="T91" s="1"/>
+    </row>
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E92" s="4">
+        <v>3324.1</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="H92" s="4">
+        <v>1854</v>
+      </c>
+      <c r="J92" s="1"/>
+      <c r="K92" s="1"/>
+      <c r="L92" s="1"/>
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+      <c r="R92" s="1"/>
+      <c r="S92" s="1"/>
+      <c r="T92" s="1"/>
+    </row>
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E93" s="4">
+        <v>2917</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H93" s="4">
+        <v>13709</v>
+      </c>
+      <c r="J93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+      <c r="R93" s="1"/>
+      <c r="S93" s="1"/>
+      <c r="T93" s="1"/>
+    </row>
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E94" s="4">
+        <v>3128.3</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94" s="4">
+        <v>3151</v>
+      </c>
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
+      <c r="R94" s="1"/>
+      <c r="S94" s="1"/>
+      <c r="T94" s="1"/>
+    </row>
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="4">
+        <v>2845.2</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>392</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H95" s="4">
+        <v>9364</v>
+      </c>
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
+      <c r="S95" s="1"/>
+      <c r="T95" s="1"/>
+    </row>
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E96" s="4">
+        <v>3690</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>395</v>
+      </c>
+      <c r="H96" s="4">
+        <v>8836</v>
+      </c>
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="1"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="1"/>
+      <c r="S96" s="1"/>
+      <c r="T96" s="1"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97" s="4">
+        <v>3870.5</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="H97" s="4">
+        <v>8001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E98" s="4">
+        <v>544</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="H98" s="4">
+        <v>4924</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E99" s="4">
+        <v>3178.9</v>
+      </c>
+      <c r="F99" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="H99" s="4">
+        <v>12538</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E100" s="4">
+        <v>3138.9</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="H100" s="4">
+        <v>7382</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E101" s="4">
+        <v>646.70000000000005</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="G101" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="H101" s="4">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>406</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E102" s="4">
+        <v>3481</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G102" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="H102" s="4">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E103" s="4">
+        <v>3713.6</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="G103" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="H103" s="4">
+        <v>15186</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104" s="4">
+        <v>3331.7</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G104" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="H104" s="4">
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E105" s="4">
+        <v>3167.7</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H105" s="4">
+        <v>5055</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="D106" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106" s="4">
+        <v>3117</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H106" s="4">
+        <v>5510</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E107" s="4">
+        <v>3111.2</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>440</v>
+      </c>
+      <c r="G107" s="4" t="s">
+        <v>441</v>
+      </c>
+      <c r="H107" s="4">
+        <v>5008</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E108" s="4">
+        <v>3549</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="H108" s="4">
+        <v>19224</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E109" s="4">
+        <v>3139.2</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="G109" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="H109" s="4">
+        <v>12583</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E110" s="4">
+        <v>3211.4</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="H110" s="4">
+        <v>12084</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E111" s="4">
+        <v>2885.1</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>463</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>464</v>
+      </c>
+      <c r="H111" s="4">
+        <v>24885</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D112" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E112" s="4">
+        <v>3758.8</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>465</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="H112" s="4">
+        <v>12825</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D113" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E113" s="4">
+        <v>2890</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="H113" s="4">
+        <v>6529</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E114" s="4">
+        <v>2092.1</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="G114" s="4" t="s">
+        <v>470</v>
+      </c>
+      <c r="H114" s="4">
+        <v>5761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E115" s="4">
+        <v>3380.9</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>471</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="H115" s="4">
+        <v>6839</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2871.1</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>473</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="H116" s="4">
+        <v>12061</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E117" s="4">
+        <v>2878.4</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="G117" s="4" t="s">
+        <v>476</v>
+      </c>
+      <c r="H117" s="4">
+        <v>3444</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAA9804-CB3A-496D-9351-4CAF2FF33DCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451E8C1-C032-42E4-A196-089E648101B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="2130" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="900" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -1530,7 +1530,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1540,7 +1540,6 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1824,7 +1823,7 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,7 +2429,7 @@
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C17" s="3" t="s">
@@ -2467,7 +2466,7 @@
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C18" s="3" t="s">
@@ -2504,7 +2503,7 @@
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C19" s="3" t="s">
@@ -2541,7 +2540,7 @@
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -2578,7 +2577,7 @@
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -2615,7 +2614,7 @@
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -2652,7 +2651,7 @@
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -2689,7 +2688,7 @@
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -2726,7 +2725,7 @@
       <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C25" s="3" t="s">
@@ -2763,7 +2762,7 @@
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -2800,7 +2799,7 @@
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -2837,7 +2836,7 @@
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -2874,7 +2873,7 @@
       <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="3" t="s">
@@ -2911,7 +2910,7 @@
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C30" s="3" t="s">
@@ -2948,7 +2947,7 @@
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C31" s="3" t="s">
@@ -2985,7 +2984,7 @@
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C32" s="3" t="s">
@@ -3022,7 +3021,7 @@
       <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C33" s="3" t="s">
@@ -3059,7 +3058,7 @@
       <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C34" s="3" t="s">
@@ -3096,7 +3095,7 @@
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C35" s="3" t="s">
@@ -3133,7 +3132,7 @@
       <c r="A36" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C36" s="3" t="s">
@@ -3170,7 +3169,7 @@
       <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -3207,7 +3206,7 @@
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C38" s="3" t="s">
@@ -3244,7 +3243,7 @@
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C39" s="3" t="s">
@@ -3281,7 +3280,7 @@
       <c r="A40" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C40" s="3" t="s">
@@ -3318,7 +3317,7 @@
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C41" s="3" t="s">
@@ -3355,7 +3354,7 @@
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C42" s="3" t="s">
@@ -3392,7 +3391,7 @@
       <c r="A43" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C43" s="3" t="s">
@@ -3429,7 +3428,7 @@
       <c r="A44" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C44" s="3" t="s">
@@ -3466,7 +3465,7 @@
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C45" s="3" t="s">
@@ -3503,7 +3502,7 @@
       <c r="A46" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C46" s="3" t="s">
@@ -3540,7 +3539,7 @@
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C47" s="3" t="s">
@@ -3577,7 +3576,7 @@
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C48" s="3" t="s">
@@ -3614,7 +3613,7 @@
       <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="3" t="s">
@@ -3651,7 +3650,7 @@
       <c r="A50" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C50" s="3" t="s">
@@ -3688,7 +3687,7 @@
       <c r="A51" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C51" s="3" t="s">
@@ -3725,7 +3724,7 @@
       <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C52" s="3" t="s">
@@ -3762,7 +3761,7 @@
       <c r="A53" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C53" s="3" t="s">
@@ -3799,7 +3798,7 @@
       <c r="A54" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C54" s="3" t="s">
@@ -3836,7 +3835,7 @@
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C55" s="3" t="s">
@@ -3873,7 +3872,7 @@
       <c r="A56" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C56" s="3" t="s">
@@ -3910,7 +3909,7 @@
       <c r="A57" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C57" s="3" t="s">
@@ -3947,7 +3946,7 @@
       <c r="A58" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C58" s="3" t="s">
@@ -3984,7 +3983,7 @@
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C59" s="3" t="s">
@@ -4021,7 +4020,7 @@
       <c r="A60" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C60" s="3" t="s">
@@ -4058,7 +4057,7 @@
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C61" s="3" t="s">
@@ -4095,7 +4094,7 @@
       <c r="A62" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C62" s="3" t="s">
@@ -4132,7 +4131,7 @@
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C63" s="3" t="s">
@@ -4169,7 +4168,7 @@
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C64" s="3" t="s">
@@ -4206,7 +4205,7 @@
       <c r="A65" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C65" s="3" t="s">
@@ -4243,7 +4242,7 @@
       <c r="A66" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C66" s="3" t="s">
@@ -4280,7 +4279,7 @@
       <c r="A67" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C67" s="3" t="s">
@@ -4317,7 +4316,7 @@
       <c r="A68" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C68" s="3" t="s">
@@ -4354,7 +4353,7 @@
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C69" s="3" t="s">
@@ -4391,7 +4390,7 @@
       <c r="A70" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C70" s="3" t="s">
@@ -4428,7 +4427,7 @@
       <c r="A71" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C71" s="3" t="s">
@@ -4465,7 +4464,7 @@
       <c r="A72" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C72" s="3" t="s">
@@ -4502,7 +4501,7 @@
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C73" s="3" t="s">
@@ -4539,7 +4538,7 @@
       <c r="A74" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B74" s="5" t="s">
+      <c r="B74" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C74" s="3" t="s">
@@ -4576,7 +4575,7 @@
       <c r="A75" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C75" s="3" t="s">
@@ -4613,7 +4612,7 @@
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B76" s="5" t="s">
+      <c r="B76" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C76" s="3" t="s">
@@ -4650,7 +4649,7 @@
       <c r="A77" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C77" s="3" t="s">
@@ -4687,7 +4686,7 @@
       <c r="A78" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C78" s="3" t="s">
@@ -4724,7 +4723,7 @@
       <c r="A79" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="B79" s="5" t="s">
+      <c r="B79" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C79" s="3" t="s">
@@ -4761,7 +4760,7 @@
       <c r="A80" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C80" s="3" t="s">
@@ -4798,7 +4797,7 @@
       <c r="A81" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C81" s="3" t="s">
@@ -4835,7 +4834,7 @@
       <c r="A82" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C82" s="3" t="s">
@@ -4872,7 +4871,7 @@
       <c r="A83" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B83" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C83" s="3" t="s">
@@ -4909,7 +4908,7 @@
       <c r="A84" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C84" s="3" t="s">
@@ -4946,7 +4945,7 @@
       <c r="A85" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C85" s="3" t="s">
@@ -4983,7 +4982,7 @@
       <c r="A86" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C86" s="3" t="s">
@@ -5020,7 +5019,7 @@
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B87" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C87" s="3" t="s">
@@ -5057,7 +5056,7 @@
       <c r="A88" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="B88" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C88" s="3" t="s">
@@ -5094,7 +5093,7 @@
       <c r="A89" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C89" s="3" t="s">
@@ -5131,7 +5130,7 @@
       <c r="A90" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C90" s="3" t="s">
@@ -5168,7 +5167,7 @@
       <c r="A91" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B91" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C91" s="3" t="s">
@@ -5205,7 +5204,7 @@
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C92" s="3" t="s">
@@ -5242,7 +5241,7 @@
       <c r="A93" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B93" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C93" s="3" t="s">
@@ -5279,7 +5278,7 @@
       <c r="A94" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="B94" s="5" t="s">
+      <c r="B94" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C94" s="3" t="s">
@@ -5316,7 +5315,7 @@
       <c r="A95" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C95" s="3" t="s">
@@ -5353,7 +5352,7 @@
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C96" s="3" t="s">
@@ -5390,7 +5389,7 @@
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C97" s="3" t="s">
@@ -5416,7 +5415,7 @@
       <c r="A98" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="2" t="s">
         <v>377</v>
       </c>
       <c r="C98" s="3" t="s">
@@ -5442,7 +5441,7 @@
       <c r="A99" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="B99" s="5" t="s">
+      <c r="B99" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C99" s="3" t="s">
@@ -5468,7 +5467,7 @@
       <c r="A100" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="B100" s="5" t="s">
+      <c r="B100" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C100" s="3" t="s">
@@ -5494,7 +5493,7 @@
       <c r="A101" s="3" t="s">
         <v>404</v>
       </c>
-      <c r="B101" s="5" t="s">
+      <c r="B101" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C101" s="3" t="s">
@@ -5520,7 +5519,7 @@
       <c r="A102" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="B102" s="5" t="s">
+      <c r="B102" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C102" s="3" t="s">
@@ -5546,7 +5545,7 @@
       <c r="A103" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C103" s="3" t="s">
@@ -5572,7 +5571,7 @@
       <c r="A104" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C104" s="3" t="s">
@@ -5598,7 +5597,7 @@
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C105" s="3" t="s">
@@ -5624,7 +5623,7 @@
       <c r="A106" s="3" t="s">
         <v>414</v>
       </c>
-      <c r="B106" s="5" t="s">
+      <c r="B106" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C106" s="3" t="s">
@@ -5650,7 +5649,7 @@
       <c r="A107" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C107" s="3" t="s">
@@ -5676,7 +5675,7 @@
       <c r="A108" s="3" t="s">
         <v>418</v>
       </c>
-      <c r="B108" s="5" t="s">
+      <c r="B108" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C108" s="3" t="s">
@@ -5702,7 +5701,7 @@
       <c r="A109" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C109" s="3" t="s">
@@ -5728,7 +5727,7 @@
       <c r="A110" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="2" t="s">
         <v>448</v>
       </c>
       <c r="C110" s="3" t="s">
@@ -5754,7 +5753,7 @@
       <c r="A111" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="B111" s="5" t="s">
+      <c r="B111" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C111" s="3" t="s">
@@ -5780,7 +5779,7 @@
       <c r="A112" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="B112" s="5" t="s">
+      <c r="B112" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C112" s="3" t="s">
@@ -5806,7 +5805,7 @@
       <c r="A113" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C113" s="3" t="s">
@@ -5832,7 +5831,7 @@
       <c r="A114" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C114" s="3" t="s">
@@ -5858,7 +5857,7 @@
       <c r="A115" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="B115" s="5" t="s">
+      <c r="B115" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C115" s="3" t="s">
@@ -5884,7 +5883,7 @@
       <c r="A116" s="3" t="s">
         <v>459</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C116" s="3" t="s">
@@ -5910,7 +5909,7 @@
       <c r="A117" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="B117" s="5" t="s">
+      <c r="B117" s="2" t="s">
         <v>450</v>
       </c>
       <c r="C117" s="3" t="s">

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C451E8C1-C032-42E4-A196-089E648101B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410111FC-788D-4294-810E-F81E6724DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="900" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="15" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,28 @@
     <sheet name="CI_Backup_Matrix" sheetId="4" r:id="rId4"/>
     <sheet name="BackupFacilities" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="704" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="528">
   <si>
     <t>location_id</t>
   </si>
@@ -1460,6 +1471,161 @@
   </si>
   <si>
     <t>13º19ʹ18"</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Plaza Regocijo S/N</t>
+  </si>
+  <si>
+    <t>Plaza de Armas S/N</t>
+  </si>
+  <si>
+    <t>Av. Ruíz Caro S/N - Plazoleta</t>
+  </si>
+  <si>
+    <t>Plaza Principal S/N</t>
+  </si>
+  <si>
+    <t>Av. La Cultura N° 500</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>13°31'00"S 71°58'48"W</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>13°35'04"S 72°03'31"W</t>
+  </si>
+  <si>
+    <t>13°32'39"S 71°53'02"W</t>
+  </si>
+  <si>
+    <t>13°31'48"S 71°56'14"W</t>
+  </si>
+  <si>
+    <t>13°31'31"S 71°58'59"W</t>
+  </si>
+  <si>
+    <t>13°34'11"S 71°49'38"W</t>
+  </si>
+  <si>
+    <t>13°31'12"S 71°58'14"W</t>
+  </si>
+  <si>
+    <t>Jr. Jaquijahuana S/N</t>
+  </si>
+  <si>
+    <t>Av. Leónidas Rodríguez N° 276</t>
+  </si>
+  <si>
+    <t>13°27'49"S 72°08'45"W</t>
+  </si>
+  <si>
+    <t>13°27'26"S 72°18'01"W</t>
+  </si>
+  <si>
+    <t>13°28'33"S 72°03'43"W</t>
+  </si>
+  <si>
+    <t>13°37'41"S 72°13'54"W</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Capacity</t>
+  </si>
+  <si>
+    <t>13°24'52"S 72°12'30"W</t>
+  </si>
+  <si>
+    <t>13°28'46"S 72°26'35"W</t>
+  </si>
+  <si>
+    <t>13°28'55"S 72°31'17"W</t>
+  </si>
+  <si>
+    <t>13°28'44"S 72°06'42"W</t>
+  </si>
+  <si>
+    <t>District</t>
+  </si>
+  <si>
+    <t>13°27'19"S 72°15'19"W</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jr. Bolognesi N° 4 Mz. 4
+Lt. S </t>
+  </si>
+  <si>
+    <t>Plaza Constitución N° 519</t>
+  </si>
+  <si>
+    <t>Plaza Grau S/N</t>
+  </si>
+  <si>
+    <t>13°19'16"S 71°57'20"W</t>
+  </si>
+  <si>
+    <t>13°23'09"S 71°53'54"W</t>
+  </si>
+  <si>
+    <t>13°21'51"S 71°55'13"W</t>
+  </si>
+  <si>
+    <t>13°06'12"S 72°02'36"W</t>
+  </si>
+  <si>
+    <t>13°25'15"S 71°51'01"W</t>
+  </si>
+  <si>
+    <t>13°29'17"S 71°46'50"W</t>
+  </si>
+  <si>
+    <t>12°48'39"S 72°03'20"W</t>
+  </si>
+  <si>
+    <t>Plaza Manco Cápac 
+N° 101</t>
+  </si>
+  <si>
+    <t>Av. San Martín N° 907</t>
+  </si>
+  <si>
+    <t>13°18'20"S 72°06'52"W</t>
+  </si>
+  <si>
+    <t>13°23'44"S 72°03'06"W</t>
+  </si>
+  <si>
+    <t>13°20'17"S 72°03'54"W</t>
+  </si>
+  <si>
+    <t>13°09'15"S 72°31'33"W</t>
+  </si>
+  <si>
+    <t>13°19'54"S 72°09'20"W</t>
+  </si>
+  <si>
+    <t>13°15'31"S 72°15'49"W</t>
+  </si>
+  <si>
+    <t>13°19'15"S 72°05'00"W</t>
   </si>
 </sst>
 </file>
@@ -1469,7 +1635,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1494,13 +1660,42 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color indexed="8"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1530,7 +1725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1539,6 +1734,16 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1823,7 +2028,7 @@
   <dimension ref="A1:T117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5950,12 +6155,1007 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>507</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="E2" s="6" t="str">
+        <f>TRIM(MID(D2, FIND(" ", D2) + 1, FIND("W", D2) - 1 - FIND(" ", D2)))</f>
+        <v>71°58'48"</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>LEFT(D2, FIND("S", D2)-1)</f>
+        <v>13°31'00"</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E3" s="6" t="str">
+        <f t="shared" ref="E3:E31" si="0">TRIM(MID(D3, FIND(" ", D3) + 1, FIND("W", D3) - 1 - FIND(" ", D3)))</f>
+        <v>72°03'31"</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ref="F3:F31" si="1">LEFT(D3, FIND("S", D3)-1)</f>
+        <v>13°35'04"</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="E4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°53'02"</v>
+      </c>
+      <c r="F4" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°32'39"</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°56'14"</v>
+      </c>
+      <c r="F5" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°31'48"</v>
+      </c>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="E6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°58'59"</v>
+      </c>
+      <c r="F6" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°31'31"</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°49'38"</v>
+      </c>
+      <c r="F7" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°34'11"</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>493</v>
+      </c>
+      <c r="E8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°58'14"</v>
+      </c>
+      <c r="F8" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°31'12"</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="E9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°08'45"</v>
+      </c>
+      <c r="F9" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°27'49"</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="E10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°18'01"</v>
+      </c>
+      <c r="F10" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°27'26"</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>498</v>
+      </c>
+      <c r="E11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°03'43"</v>
+      </c>
+      <c r="F11" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°28'33"</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="E12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°13'54"</v>
+      </c>
+      <c r="F12" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°37'41"</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="E13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°12'30"</v>
+      </c>
+      <c r="F13" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°24'52"</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="6"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="E14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°26'35"</v>
+      </c>
+      <c r="F14" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°28'46"</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+      <c r="R14" s="6"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="E15" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°31'17"</v>
+      </c>
+      <c r="F15" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°28'55"</v>
+      </c>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="E16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°06'42"</v>
+      </c>
+      <c r="F16" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°28'44"</v>
+      </c>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="E17" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°15'19"</v>
+      </c>
+      <c r="F17" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°27'19"</v>
+      </c>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="E18" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°57'20"</v>
+      </c>
+      <c r="F18" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°19'16"</v>
+      </c>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="E19" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°53'54"</v>
+      </c>
+      <c r="F19" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°23'09"</v>
+      </c>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="E20" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°55'13"</v>
+      </c>
+      <c r="F20" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°21'51"</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+      <c r="R20" s="6"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>515</v>
+      </c>
+      <c r="E21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°02'36"</v>
+      </c>
+      <c r="F21" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°06'12"</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>510</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="E22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°51'01"</v>
+      </c>
+      <c r="F22" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°25'15"</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+      <c r="R22" s="6"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>511</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>71°46'50"</v>
+      </c>
+      <c r="F23" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°29'17"</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+      <c r="R23" s="6"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="E24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°03'20"</v>
+      </c>
+      <c r="F24" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>12°48'39"</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="E25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°06'52"</v>
+      </c>
+      <c r="F25" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°18'20"</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="E26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°03'06"</v>
+      </c>
+      <c r="F26" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°23'44"</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="E27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°03'54"</v>
+      </c>
+      <c r="F27" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°20'17"</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>519</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°31'33"</v>
+      </c>
+      <c r="F28" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°09'15"</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="E29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°09'20"</v>
+      </c>
+      <c r="F29" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°19'54"</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="E30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°15'49"</v>
+      </c>
+      <c r="F30" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°15'31"</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>520</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="E31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>72°05'00"</v>
+      </c>
+      <c r="F31" s="6" t="str">
+        <f t="shared" si="1"/>
+        <v>13°19'15"</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{410111FC-788D-4294-810E-F81E6724DD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0E892-7519-40C0-A6AF-DA7C3F66C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4080" yWindow="15" windowWidth="19785" windowHeight="13440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="1035" windowWidth="19785" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
     <sheet name="Community_CI_Matrix" sheetId="3" r:id="rId2"/>
-    <sheet name="Critical Infrastructure" sheetId="2" r:id="rId3"/>
+    <sheet name="Critical_Infrastructure" sheetId="2" r:id="rId3"/>
     <sheet name="CI_Backup_Matrix" sheetId="4" r:id="rId4"/>
     <sheet name="BackupFacilities" sheetId="5" r:id="rId5"/>
   </sheets>
@@ -2027,7 +2027,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -6157,8 +6157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69C0E892-7519-40C0-A6AF-DA7C3F66C527}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDC983-934F-044D-9567-C252BB180600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1035" windowWidth="19785" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2500" yWindow="1040" windowWidth="19780" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="527">
   <si>
     <t>location_id</t>
   </si>
@@ -1473,9 +1473,6 @@
     <t>13º19ʹ18"</t>
   </si>
   <si>
-    <t>Province</t>
-  </si>
-  <si>
     <t>Plaza Regocijo S/N</t>
   </si>
   <si>
@@ -1497,15 +1494,9 @@
     <t>latitude</t>
   </si>
   <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>13°31'00"S 71°58'48"W</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
     <t>13°35'04"S 72°03'31"W</t>
   </si>
   <si>
@@ -1561,9 +1552,6 @@
   </si>
   <si>
     <t>13°28'44"S 72°06'42"W</t>
-  </si>
-  <si>
-    <t>District</t>
   </si>
   <si>
     <t>13°27'19"S 72°15'19"W</t>
@@ -1626,6 +1614,15 @@
   </si>
   <si>
     <t>13°19'15"S 72°05'00"W</t>
+  </si>
+  <si>
+    <t>wh_id</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>location</t>
   </si>
 </sst>
 </file>
@@ -1635,7 +1632,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1668,14 +1665,9 @@
     </font>
     <font>
       <sz val="7"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
       <color indexed="8"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1739,10 +1731,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2031,13 +2023,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2075,7 +2067,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2112,7 +2104,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2149,7 +2141,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2186,7 +2178,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2223,7 +2215,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2260,7 +2252,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2297,7 +2289,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2334,7 +2326,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2371,7 +2363,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2400,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2445,7 +2437,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2482,7 +2474,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2519,7 +2511,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2556,7 +2548,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2593,7 +2585,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2630,7 +2622,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -2667,7 +2659,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -2704,7 +2696,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -2741,7 +2733,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -2778,7 +2770,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2815,7 +2807,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -2852,7 +2844,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2889,7 +2881,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2926,7 +2918,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
@@ -2963,7 +2955,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -3000,7 +2992,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -3037,7 +3029,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -3074,7 +3066,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
@@ -3111,7 +3103,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
@@ -3148,7 +3140,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3185,7 +3177,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -3222,7 +3214,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
@@ -3259,7 +3251,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
@@ -3296,7 +3288,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3333,7 +3325,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>142</v>
       </c>
@@ -3370,7 +3362,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
@@ -3407,7 +3399,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3444,7 +3436,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3481,7 +3473,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>150</v>
       </c>
@@ -3518,7 +3510,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -3555,7 +3547,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -3592,7 +3584,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>173</v>
       </c>
@@ -3629,7 +3621,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>175</v>
       </c>
@@ -3666,7 +3658,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
@@ -3703,7 +3695,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>179</v>
       </c>
@@ -3740,7 +3732,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
@@ -3777,7 +3769,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
@@ -3814,7 +3806,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
@@ -3851,7 +3843,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>204</v>
       </c>
@@ -3888,7 +3880,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>206</v>
       </c>
@@ -3925,7 +3917,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
@@ -3962,7 +3954,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>210</v>
       </c>
@@ -3999,7 +3991,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>212</v>
       </c>
@@ -4036,7 +4028,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
@@ -4073,7 +4065,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>216</v>
       </c>
@@ -4110,7 +4102,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>218</v>
       </c>
@@ -4147,7 +4139,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>237</v>
       </c>
@@ -4184,7 +4176,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -4221,7 +4213,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>241</v>
       </c>
@@ -4258,7 +4250,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -4295,7 +4287,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>245</v>
       </c>
@@ -4332,7 +4324,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
@@ -4369,7 +4361,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
@@ -4406,7 +4398,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>251</v>
       </c>
@@ -4443,7 +4435,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>269</v>
       </c>
@@ -4480,7 +4472,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>271</v>
       </c>
@@ -4517,7 +4509,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>273</v>
       </c>
@@ -4554,7 +4546,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
@@ -4591,7 +4583,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>277</v>
       </c>
@@ -4628,7 +4620,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>279</v>
       </c>
@@ -4665,7 +4657,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>281</v>
       </c>
@@ -4702,7 +4694,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
@@ -4739,7 +4731,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>285</v>
       </c>
@@ -4776,7 +4768,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>287</v>
       </c>
@@ -4813,7 +4805,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -4850,7 +4842,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>291</v>
       </c>
@@ -4887,7 +4879,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>293</v>
       </c>
@@ -4924,7 +4916,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>295</v>
       </c>
@@ -4961,7 +4953,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>297</v>
       </c>
@@ -4998,7 +4990,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>299</v>
       </c>
@@ -5035,7 +5027,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>301</v>
       </c>
@@ -5072,7 +5064,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>303</v>
       </c>
@@ -5109,7 +5101,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>341</v>
       </c>
@@ -5146,7 +5138,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>343</v>
       </c>
@@ -5183,7 +5175,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>345</v>
       </c>
@@ -5220,7 +5212,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
@@ -5257,7 +5249,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>349</v>
       </c>
@@ -5294,7 +5286,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>351</v>
       </c>
@@ -5331,7 +5323,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>353</v>
       </c>
@@ -5368,7 +5360,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>355</v>
       </c>
@@ -5405,7 +5397,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
@@ -5442,7 +5434,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>376</v>
       </c>
@@ -5479,7 +5471,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>378</v>
       </c>
@@ -5516,7 +5508,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>380</v>
       </c>
@@ -5553,7 +5545,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
@@ -5590,7 +5582,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -5616,7 +5608,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>386</v>
       </c>
@@ -5642,7 +5634,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>400</v>
       </c>
@@ -5668,7 +5660,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>402</v>
       </c>
@@ -5694,7 +5686,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>404</v>
       </c>
@@ -5720,7 +5712,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>406</v>
       </c>
@@ -5746,7 +5738,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>408</v>
       </c>
@@ -5772,7 +5764,7 @@
         <v>15186</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>410</v>
       </c>
@@ -5798,7 +5790,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
@@ -5824,7 +5816,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>414</v>
       </c>
@@ -5850,7 +5842,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>416</v>
       </c>
@@ -5876,7 +5868,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>418</v>
       </c>
@@ -5902,7 +5894,7 @@
         <v>19224</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>420</v>
       </c>
@@ -5928,7 +5920,7 @@
         <v>12583</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>422</v>
       </c>
@@ -5954,7 +5946,7 @@
         <v>12084</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>449</v>
       </c>
@@ -5980,7 +5972,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>451</v>
       </c>
@@ -6006,7 +5998,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>453</v>
       </c>
@@ -6032,7 +6024,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>455</v>
       </c>
@@ -6058,7 +6050,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>457</v>
       </c>
@@ -6084,7 +6076,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>459</v>
       </c>
@@ -6110,7 +6102,7 @@
         <v>12061</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>461</v>
       </c>
@@ -6147,7 +6139,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6155,43 +6147,45 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
-  <dimension ref="A1:S31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>477</v>
+        <v>524</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>507</v>
+        <v>1</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>485</v>
+        <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>487</v>
+        <v>525</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>502</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="I1" s="6"/>
+        <v>499</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>498</v>
+      </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
@@ -6202,32 +6196,35 @@
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="6">
+        <v>160001</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>478</v>
-      </c>
       <c r="D2" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="E2" s="6" t="str">
-        <f>TRIM(MID(D2, FIND(" ", D2) + 1, FIND("W", D2) - 1 - FIND(" ", D2)))</f>
+        <v>477</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="F2" s="6" t="str">
+        <f>TRIM(MID(E2, FIND(" ", E2) + 1, FIND("W", E2) - 1 - FIND(" ", E2)))</f>
         <v>71°58'48"</v>
       </c>
-      <c r="F2" s="6" t="str">
-        <f>LEFT(D2, FIND("S", D2)-1)</f>
+      <c r="G2" s="6" t="str">
+        <f>LEFT(E2, FIND("S", E2)-1)</f>
         <v>13°31'00"</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I2" s="6"/>
       <c r="J2" s="6"/>
       <c r="K2" s="6"/>
@@ -6239,29 +6236,32 @@
       <c r="Q2" s="6"/>
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="T2" s="6"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A3" s="6">
+        <v>160002</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D3" s="5" t="s">
-        <v>488</v>
-      </c>
-      <c r="E3" s="6" t="str">
-        <f t="shared" ref="E3:E31" si="0">TRIM(MID(D3, FIND(" ", D3) + 1, FIND("W", D3) - 1 - FIND(" ", D3)))</f>
+        <v>478</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="F3" s="6" t="str">
+        <f t="shared" ref="F3:F31" si="0">TRIM(MID(E3, FIND(" ", E3) + 1, FIND("W", E3) - 1 - FIND(" ", E3)))</f>
         <v>72°03'31"</v>
       </c>
-      <c r="F3" s="6" t="str">
-        <f t="shared" ref="F3:F31" si="1">LEFT(D3, FIND("S", D3)-1)</f>
+      <c r="G3" s="6" t="str">
+        <f t="shared" ref="G3:G31" si="1">LEFT(E3, FIND("S", E3)-1)</f>
         <v>13°35'04"</v>
       </c>
-      <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -6274,29 +6274,32 @@
       <c r="Q3" s="6"/>
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="T3" s="6"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A4" s="6">
+        <v>160003</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="E4" s="6" t="str">
+        <v>478</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="F4" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°53'02"</v>
       </c>
-      <c r="F4" s="6" t="str">
+      <c r="G4" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°32'39"</v>
       </c>
-      <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -6309,29 +6312,32 @@
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-    </row>
-    <row r="5" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="T4" s="6"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A5" s="6">
+        <v>160004</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>479</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" s="6" t="str">
+        <v>478</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="F5" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°56'14"</v>
       </c>
-      <c r="F5" s="6" t="str">
+      <c r="G5" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°31'48"</v>
       </c>
-      <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -6344,29 +6350,32 @@
       <c r="Q5" s="6"/>
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="T5" s="6"/>
+    </row>
+    <row r="6" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="A6" s="6">
+        <v>160005</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>480</v>
-      </c>
       <c r="D6" s="5" t="s">
-        <v>491</v>
-      </c>
-      <c r="E6" s="6" t="str">
+        <v>479</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="F6" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°58'59"</v>
       </c>
-      <c r="F6" s="6" t="str">
+      <c r="G6" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°31'31"</v>
       </c>
-      <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -6379,29 +6388,32 @@
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="T6" s="6"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A7" s="6">
+        <v>160006</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>481</v>
-      </c>
       <c r="D7" s="5" t="s">
-        <v>492</v>
-      </c>
-      <c r="E7" s="6" t="str">
+        <v>480</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F7" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°49'38"</v>
       </c>
-      <c r="F7" s="6" t="str">
+      <c r="G7" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°34'11"</v>
       </c>
-      <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -6414,29 +6426,32 @@
       <c r="Q7" s="6"/>
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="T7" s="6"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A8" s="6">
+        <v>160007</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E8" s="6" t="str">
+        <v>481</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="F8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°58'14"</v>
       </c>
-      <c r="F8" s="6" t="str">
+      <c r="G8" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°31'12"</v>
       </c>
-      <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -6449,29 +6464,32 @@
       <c r="Q8" s="6"/>
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="T8" s="6"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A9" s="6">
+        <v>160008</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="E9" s="6" t="str">
+      <c r="D9" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="F9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°08'45"</v>
       </c>
-      <c r="F9" s="6" t="str">
+      <c r="G9" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°27'49"</v>
       </c>
-      <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -6484,29 +6502,32 @@
       <c r="Q9" s="6"/>
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="T9" s="6"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="6">
+        <v>160009</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C10" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="E10" s="6" t="str">
+      <c r="D10" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="F10" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°18'01"</v>
       </c>
-      <c r="F10" s="6" t="str">
+      <c r="G10" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°27'26"</v>
       </c>
-      <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -6519,29 +6540,32 @@
       <c r="Q10" s="6"/>
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
-    </row>
-    <row r="11" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="T10" s="6"/>
+    </row>
+    <row r="11" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="A11" s="6">
+        <v>160010</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="E11" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="D11" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="E11" s="6" t="str">
+      <c r="F11" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°03'43"</v>
       </c>
-      <c r="F11" s="6" t="str">
+      <c r="G11" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°28'33"</v>
       </c>
-      <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
@@ -6554,32 +6578,35 @@
       <c r="Q11" s="6"/>
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
-    </row>
-    <row r="12" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="T11" s="6"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A12" s="6">
+        <v>160011</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C12" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="E12" s="6" t="str">
+      <c r="D12" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="F12" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°13'54"</v>
       </c>
-      <c r="F12" s="6" t="str">
+      <c r="G12" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°37'41"</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H12" s="6"/>
+      <c r="H12" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -6591,29 +6618,32 @@
       <c r="Q12" s="6"/>
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="T12" s="6"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A13" s="6">
+        <v>160012</v>
+      </c>
+      <c r="B13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="E13" s="6" t="str">
+      <c r="D13" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>500</v>
+      </c>
+      <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°12'30"</v>
       </c>
-      <c r="F13" s="6" t="str">
+      <c r="G13" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°24'52"</v>
       </c>
-      <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
@@ -6626,29 +6656,32 @@
       <c r="Q13" s="6"/>
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="T13" s="6"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A14" s="6">
+        <v>160013</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="E14" s="6" t="str">
+      <c r="D14" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°26'35"</v>
       </c>
-      <c r="F14" s="6" t="str">
+      <c r="G14" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°28'46"</v>
       </c>
-      <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -6661,29 +6694,32 @@
       <c r="Q14" s="6"/>
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="T14" s="6"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A15" s="6">
+        <v>160014</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C15" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>505</v>
-      </c>
-      <c r="E15" s="6" t="str">
+      <c r="D15" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°31'17"</v>
       </c>
-      <c r="F15" s="6" t="str">
+      <c r="G15" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°28'55"</v>
       </c>
-      <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
@@ -6696,29 +6732,32 @@
       <c r="Q15" s="6"/>
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="T15" s="6"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="6">
+        <v>160015</v>
+      </c>
+      <c r="B16" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>506</v>
-      </c>
-      <c r="E16" s="6" t="str">
+      <c r="D16" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°06'42"</v>
       </c>
-      <c r="F16" s="6" t="str">
+      <c r="G16" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°28'44"</v>
       </c>
-      <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
@@ -6731,29 +6770,32 @@
       <c r="Q16" s="6"/>
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="T16" s="6"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>160016</v>
+      </c>
+      <c r="B17" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>508</v>
-      </c>
-      <c r="E17" s="6" t="str">
+      <c r="D17" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>504</v>
+      </c>
+      <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°15'19"</v>
       </c>
-      <c r="F17" s="6" t="str">
+      <c r="G17" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°27'19"</v>
       </c>
-      <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
       <c r="J17" s="6"/>
@@ -6766,29 +6808,32 @@
       <c r="Q17" s="6"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="T17" s="6"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="6">
+        <v>160017</v>
+      </c>
+      <c r="B18" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C18" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="E18" s="6" t="str">
+      <c r="D18" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>508</v>
+      </c>
+      <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°57'20"</v>
       </c>
-      <c r="F18" s="6" t="str">
+      <c r="G18" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°19'16"</v>
       </c>
-      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
@@ -6801,29 +6846,32 @@
       <c r="Q18" s="6"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="T18" s="6"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="6">
+        <v>160018</v>
+      </c>
+      <c r="B19" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="E19" s="6" t="str">
+      <c r="D19" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°53'54"</v>
       </c>
-      <c r="F19" s="6" t="str">
+      <c r="G19" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°23'09"</v>
       </c>
-      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
       <c r="J19" s="6"/>
@@ -6836,29 +6884,32 @@
       <c r="Q19" s="6"/>
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="T19" s="6"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="6">
+        <v>160019</v>
+      </c>
+      <c r="B20" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C20" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="E20" s="6" t="str">
+      <c r="D20" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°55'13"</v>
       </c>
-      <c r="F20" s="6" t="str">
+      <c r="G20" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°21'51"</v>
       </c>
-      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
       <c r="J20" s="6"/>
@@ -6871,32 +6922,35 @@
       <c r="Q20" s="6"/>
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
-    </row>
-    <row r="21" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="T20" s="6"/>
+    </row>
+    <row r="21" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="A21" s="6">
+        <v>160020</v>
+      </c>
+      <c r="B21" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C21" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>509</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>515</v>
-      </c>
-      <c r="E21" s="6" t="str">
+      <c r="D21" s="8" t="s">
+        <v>505</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°02'36"</v>
       </c>
-      <c r="F21" s="6" t="str">
+      <c r="G21" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°06'12"</v>
       </c>
-      <c r="G21" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="H21" s="6"/>
+      <c r="H21" s="6" t="s">
+        <v>497</v>
+      </c>
       <c r="I21" s="6"/>
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
@@ -6908,29 +6962,32 @@
       <c r="Q21" s="6"/>
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
-    </row>
-    <row r="22" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="T21" s="6"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A22" s="6">
+        <v>160021</v>
+      </c>
+      <c r="B22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="C22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>510</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="E22" s="6" t="str">
+      <c r="D22" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°51'01"</v>
       </c>
-      <c r="F22" s="6" t="str">
+      <c r="G22" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°25'15"</v>
       </c>
-      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
       <c r="J22" s="6"/>
@@ -6943,29 +7000,32 @@
       <c r="Q22" s="6"/>
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="T22" s="6"/>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A23" s="6">
+        <v>160022</v>
+      </c>
+      <c r="B23" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="7" t="s">
+      <c r="C23" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>511</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="E23" s="6" t="str">
+      <c r="D23" s="8" t="s">
+        <v>507</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>71°46'50"</v>
       </c>
-      <c r="F23" s="6" t="str">
+      <c r="G23" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°29'17"</v>
       </c>
-      <c r="G23" s="6"/>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
       <c r="J23" s="6"/>
@@ -6978,182 +7038,223 @@
       <c r="Q23" s="6"/>
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="T23" s="6"/>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A24" s="6">
+        <v>160023</v>
+      </c>
+      <c r="B24" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="7" t="s">
+      <c r="C24" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>518</v>
-      </c>
-      <c r="E24" s="6" t="str">
+      <c r="D24" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°03'20"</v>
       </c>
-      <c r="F24" s="6" t="str">
+      <c r="G24" s="6" t="str">
         <f t="shared" si="1"/>
         <v>12°48'39"</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A25" s="6">
+        <v>160024</v>
+      </c>
+      <c r="B25" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="C25" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E25" s="6" t="str">
+      <c r="D25" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°06'52"</v>
       </c>
-      <c r="F25" s="6" t="str">
+      <c r="G25" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°18'20"</v>
       </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="H25" s="6"/>
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A26" s="6">
+        <v>160025</v>
+      </c>
+      <c r="B26" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B26" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="E26" s="6" t="str">
+      <c r="D26" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°03'06"</v>
       </c>
-      <c r="F26" s="6" t="str">
+      <c r="G26" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°23'44"</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A27" s="6">
+        <v>160026</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>454</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="E27" s="6" t="str">
+      <c r="D27" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°03'54"</v>
       </c>
-      <c r="F27" s="6" t="str">
+      <c r="G27" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°20'17"</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="A28" s="6">
+        <v>160027</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>519</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>524</v>
-      </c>
-      <c r="E28" s="6" t="str">
+      <c r="D28" s="8" t="s">
+        <v>515</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>520</v>
+      </c>
+      <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°31'33"</v>
       </c>
-      <c r="F28" s="6" t="str">
+      <c r="G28" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°09'15"</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A29" s="6">
+        <v>160028</v>
+      </c>
+      <c r="B29" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B29" s="7" t="s">
+      <c r="C29" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>525</v>
-      </c>
-      <c r="E29" s="6" t="str">
+      <c r="D29" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>521</v>
+      </c>
+      <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°09'20"</v>
       </c>
-      <c r="F29" s="6" t="str">
+      <c r="G29" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°19'54"</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A30" s="6">
+        <v>160029</v>
+      </c>
+      <c r="B30" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="C30" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>479</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="E30" s="6" t="str">
+      <c r="D30" s="8" t="s">
+        <v>478</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°15'49"</v>
       </c>
-      <c r="F30" s="6" t="str">
+      <c r="G30" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°15'31"</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A31" s="6">
+        <v>160030</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B31" s="7" t="s">
+      <c r="C31" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>520</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="E31" s="6" t="str">
+      <c r="D31" s="8" t="s">
+        <v>516</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
         <v>72°05'00"</v>
       </c>
-      <c r="F31" s="6" t="str">
+      <c r="G31" s="6" t="str">
         <f t="shared" si="1"/>
         <v>13°19'15"</v>
       </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7166,7 +7267,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7178,7 +7279,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DDC983-934F-044D-9567-C252BB180600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36811A1E-44FD-2145-8E77-B6DEDE42D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1040" windowWidth="19780" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="530">
   <si>
     <t>location_id</t>
   </si>
@@ -1623,6 +1623,15 @@
   </si>
   <si>
     <t>location</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>BackUp</t>
   </si>
 </sst>
 </file>
@@ -6149,8 +6158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
   <dimension ref="A1:T31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6186,7 +6195,9 @@
       <c r="I1" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="J1" s="6"/>
+      <c r="J1" s="6" t="s">
+        <v>527</v>
+      </c>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -6225,8 +6236,12 @@
       <c r="H2" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+      <c r="I2" s="6">
+        <v>1</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
@@ -6264,7 +6279,9 @@
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="J3" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -6302,7 +6319,9 @@
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+      <c r="J4" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
@@ -6340,7 +6359,9 @@
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -6378,7 +6399,9 @@
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
@@ -6416,7 +6439,9 @@
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="J7" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -6454,7 +6479,9 @@
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+      <c r="J8" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -6492,7 +6519,9 @@
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -6530,7 +6559,9 @@
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -6568,7 +6599,9 @@
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -6608,7 +6641,9 @@
         <v>497</v>
       </c>
       <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -6646,7 +6681,9 @@
       </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -6684,7 +6721,9 @@
       </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -6722,7 +6761,9 @@
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -6760,7 +6801,9 @@
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+      <c r="J16" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
@@ -6798,7 +6841,9 @@
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+      <c r="J17" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
@@ -6836,7 +6881,9 @@
       </c>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+      <c r="J18" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
@@ -6874,7 +6921,9 @@
       </c>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
@@ -6912,7 +6961,9 @@
       </c>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="J20" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -6952,7 +7003,9 @@
         <v>497</v>
       </c>
       <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -6990,7 +7043,9 @@
       </c>
       <c r="H22" s="6"/>
       <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
+      <c r="J22" s="6" t="s">
+        <v>528</v>
+      </c>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
@@ -7028,7 +7083,9 @@
       </c>
       <c r="H23" s="6"/>
       <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
+      <c r="J23" s="6" t="s">
+        <v>529</v>
+      </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -7066,6 +7123,9 @@
       </c>
       <c r="H24" s="6"/>
       <c r="I24" s="6"/>
+      <c r="J24" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
@@ -7093,6 +7153,9 @@
       </c>
       <c r="H25" s="6"/>
       <c r="I25" s="6"/>
+      <c r="J25" s="6" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
@@ -7120,6 +7183,9 @@
       </c>
       <c r="H26" s="6"/>
       <c r="I26" s="6"/>
+      <c r="J26" s="6" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
@@ -7147,6 +7213,9 @@
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
+      <c r="J27" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="28" spans="1:20" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
@@ -7174,6 +7243,9 @@
       </c>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
+      <c r="J28" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
@@ -7201,6 +7273,9 @@
       </c>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
@@ -7228,6 +7303,9 @@
       </c>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
+      <c r="J30" s="6" t="s">
+        <v>528</v>
+      </c>
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
@@ -7255,6 +7333,9 @@
       </c>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
+      <c r="J31" s="6" t="s">
+        <v>529</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36811A1E-44FD-2145-8E77-B6DEDE42D4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20870AF3-23A4-F04A-BC91-994B0D30CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2500" yWindow="1040" windowWidth="19780" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="867" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="531">
   <si>
     <t>location_id</t>
   </si>
@@ -1534,12 +1534,6 @@
   </si>
   <si>
     <t>High</t>
-  </si>
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>Capacity</t>
   </si>
   <si>
     <t>13°24'52"S 72°12'30"W</t>
@@ -1625,13 +1619,22 @@
     <t>location</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>Main</t>
   </si>
   <si>
     <t>BackUp</t>
+  </si>
+  <si>
+    <t>warehouse_size</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -6156,10 +6159,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6167,9 +6170,9 @@
     <col min="4" max="5" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
@@ -6178,10 +6181,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>482</v>
@@ -6190,15 +6193,17 @@
         <v>483</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>499</v>
+        <v>528</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>498</v>
+        <v>527</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="K1" s="6"/>
+        <v>529</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>530</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -6208,8 +6213,9 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" s="6"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>160001</v>
       </c>
@@ -6237,12 +6243,14 @@
         <v>497</v>
       </c>
       <c r="I2" s="6">
+        <v>250</v>
+      </c>
+      <c r="J2" s="6">
         <v>1</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L2" s="6"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
@@ -6252,8 +6260,9 @@
       <c r="R2" s="6"/>
       <c r="S2" s="6"/>
       <c r="T2" s="6"/>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" s="6"/>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>160002</v>
       </c>
@@ -6278,11 +6287,15 @@
         <v>13°35'04"</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K3" s="6"/>
+      <c r="I3" s="6">
+        <v>190</v>
+      </c>
+      <c r="J3" s="6">
+        <v>19500</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
@@ -6292,8 +6305,9 @@
       <c r="R3" s="6"/>
       <c r="S3" s="6"/>
       <c r="T3" s="6"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U3" s="6"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>160003</v>
       </c>
@@ -6318,11 +6332,15 @@
         <v>13°32'39"</v>
       </c>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K4" s="6"/>
+      <c r="I4" s="6">
+        <v>290</v>
+      </c>
+      <c r="J4" s="6">
+        <v>205550</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
@@ -6332,8 +6350,9 @@
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
       <c r="T4" s="6"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U4" s="6"/>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>160004</v>
       </c>
@@ -6358,11 +6377,15 @@
         <v>13°31'48"</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K5" s="6"/>
+      <c r="I5" s="6">
+        <v>220</v>
+      </c>
+      <c r="J5" s="6">
+        <v>22000</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -6372,8 +6395,9 @@
       <c r="R5" s="6"/>
       <c r="S5" s="6"/>
       <c r="T5" s="6"/>
-    </row>
-    <row r="6" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="U5" s="6"/>
+    </row>
+    <row r="6" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>160005</v>
       </c>
@@ -6398,11 +6422,15 @@
         <v>13°31'31"</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K6" s="6"/>
+      <c r="I6" s="6">
+        <v>210</v>
+      </c>
+      <c r="J6" s="6">
+        <v>155100</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
@@ -6412,8 +6440,9 @@
       <c r="R6" s="6"/>
       <c r="S6" s="6"/>
       <c r="T6" s="6"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>160006</v>
       </c>
@@ -6438,11 +6467,15 @@
         <v>13°34'11"</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K7" s="6"/>
+      <c r="I7" s="6">
+        <v>130</v>
+      </c>
+      <c r="J7" s="6">
+        <v>18000</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
@@ -6452,8 +6485,9 @@
       <c r="R7" s="6"/>
       <c r="S7" s="6"/>
       <c r="T7" s="6"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>160007</v>
       </c>
@@ -6478,11 +6512,15 @@
         <v>13°31'12"</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="I8" s="6">
+        <v>240</v>
+      </c>
+      <c r="J8" s="6">
+        <v>24500</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
@@ -6492,8 +6530,9 @@
       <c r="R8" s="6"/>
       <c r="S8" s="6"/>
       <c r="T8" s="6"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>160008</v>
       </c>
@@ -6518,11 +6557,15 @@
         <v>13°27'49"</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="I9" s="6">
+        <v>260</v>
+      </c>
+      <c r="J9" s="6">
+        <v>188500</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
@@ -6532,8 +6575,9 @@
       <c r="R9" s="6"/>
       <c r="S9" s="6"/>
       <c r="T9" s="6"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>160009</v>
       </c>
@@ -6558,11 +6602,15 @@
         <v>13°27'26"</v>
       </c>
       <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K10" s="6"/>
+      <c r="I10" s="6">
+        <v>150</v>
+      </c>
+      <c r="J10" s="6">
+        <v>7500</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -6572,8 +6620,9 @@
       <c r="R10" s="6"/>
       <c r="S10" s="6"/>
       <c r="T10" s="6"/>
-    </row>
-    <row r="11" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>160010</v>
       </c>
@@ -6598,11 +6647,15 @@
         <v>13°28'33"</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K11" s="6"/>
+      <c r="I11" s="6">
+        <v>270</v>
+      </c>
+      <c r="J11" s="6">
+        <v>198900</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -6612,8 +6665,9 @@
       <c r="R11" s="6"/>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>160011</v>
       </c>
@@ -6640,11 +6694,15 @@
       <c r="H12" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K12" s="6"/>
+      <c r="I12" s="6">
+        <v>230</v>
+      </c>
+      <c r="J12" s="6">
+        <v>155100</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
@@ -6654,8 +6712,9 @@
       <c r="R12" s="6"/>
       <c r="S12" s="6"/>
       <c r="T12" s="6"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="6"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>160012</v>
       </c>
@@ -6669,7 +6728,7 @@
         <v>478</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="F13" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6680,11 +6739,15 @@
         <v>13°24'52"</v>
       </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K13" s="6"/>
+      <c r="I13" s="6">
+        <v>200</v>
+      </c>
+      <c r="J13" s="6">
+        <v>16800</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
@@ -6694,8 +6757,9 @@
       <c r="R13" s="6"/>
       <c r="S13" s="6"/>
       <c r="T13" s="6"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="6"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>160013</v>
       </c>
@@ -6709,7 +6773,7 @@
         <v>478</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F14" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6720,11 +6784,15 @@
         <v>13°28'46"</v>
       </c>
       <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K14" s="6"/>
+      <c r="I14" s="6">
+        <v>170</v>
+      </c>
+      <c r="J14" s="6">
+        <v>25000</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
@@ -6734,8 +6802,9 @@
       <c r="R14" s="6"/>
       <c r="S14" s="6"/>
       <c r="T14" s="6"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="6"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>160014</v>
       </c>
@@ -6749,7 +6818,7 @@
         <v>478</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F15" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6760,11 +6829,15 @@
         <v>13°28'55"</v>
       </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K15" s="6"/>
+      <c r="I15" s="6">
+        <v>110</v>
+      </c>
+      <c r="J15" s="6">
+        <v>15500</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
@@ -6774,8 +6847,9 @@
       <c r="R15" s="6"/>
       <c r="S15" s="6"/>
       <c r="T15" s="6"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="6"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>160015</v>
       </c>
@@ -6789,7 +6863,7 @@
         <v>478</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F16" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6800,11 +6874,15 @@
         <v>13°28'44"</v>
       </c>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K16" s="6"/>
+      <c r="I16" s="6">
+        <v>300</v>
+      </c>
+      <c r="J16" s="6">
+        <v>220000</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
@@ -6814,8 +6892,9 @@
       <c r="R16" s="6"/>
       <c r="S16" s="6"/>
       <c r="T16" s="6"/>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="6"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>160016</v>
       </c>
@@ -6829,7 +6908,7 @@
         <v>478</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F17" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6840,11 +6919,15 @@
         <v>13°27'19"</v>
       </c>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K17" s="6"/>
+      <c r="I17" s="6">
+        <v>140</v>
+      </c>
+      <c r="J17" s="6">
+        <v>17900</v>
+      </c>
+      <c r="K17" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
@@ -6854,8 +6937,9 @@
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
       <c r="T17" s="6"/>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="6"/>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>160017</v>
       </c>
@@ -6869,7 +6953,7 @@
         <v>478</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F18" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6880,11 +6964,15 @@
         <v>13°19'16"</v>
       </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K18" s="6"/>
+      <c r="I18" s="6">
+        <v>230</v>
+      </c>
+      <c r="J18" s="6">
+        <v>20200</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L18" s="6"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
@@ -6894,8 +6982,9 @@
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
       <c r="T18" s="6"/>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="6"/>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>160018</v>
       </c>
@@ -6909,7 +6998,7 @@
         <v>478</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F19" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6920,11 +7009,15 @@
         <v>13°23'09"</v>
       </c>
       <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K19" s="6"/>
+      <c r="I19" s="6">
+        <v>290</v>
+      </c>
+      <c r="J19" s="6">
+        <v>205550</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
@@ -6934,8 +7027,9 @@
       <c r="R19" s="6"/>
       <c r="S19" s="6"/>
       <c r="T19" s="6"/>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="6"/>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>160019</v>
       </c>
@@ -6949,7 +7043,7 @@
         <v>478</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="F20" s="6" t="str">
         <f t="shared" si="0"/>
@@ -6960,11 +7054,15 @@
         <v>13°21'51"</v>
       </c>
       <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K20" s="6"/>
+      <c r="I20" s="6">
+        <v>280</v>
+      </c>
+      <c r="J20" s="6">
+        <v>198200</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
@@ -6974,8 +7072,9 @@
       <c r="R20" s="6"/>
       <c r="S20" s="6"/>
       <c r="T20" s="6"/>
-    </row>
-    <row r="21" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="U20" s="6"/>
+    </row>
+    <row r="21" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>160020</v>
       </c>
@@ -6986,10 +7085,10 @@
         <v>114</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="F21" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7002,11 +7101,15 @@
       <c r="H21" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K21" s="6"/>
+      <c r="I21" s="6">
+        <v>300</v>
+      </c>
+      <c r="J21" s="6">
+        <v>220000</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
@@ -7016,8 +7119,9 @@
       <c r="R21" s="6"/>
       <c r="S21" s="6"/>
       <c r="T21" s="6"/>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="6"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>160021</v>
       </c>
@@ -7028,10 +7132,10 @@
         <v>116</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="F22" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7042,11 +7146,15 @@
         <v>13°25'15"</v>
       </c>
       <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6" t="s">
-        <v>528</v>
-      </c>
-      <c r="K22" s="6"/>
+      <c r="I22" s="6">
+        <v>200</v>
+      </c>
+      <c r="J22" s="6">
+        <v>220000</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>525</v>
+      </c>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
@@ -7056,8 +7164,9 @@
       <c r="R22" s="6"/>
       <c r="S22" s="6"/>
       <c r="T22" s="6"/>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="6"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>160022</v>
       </c>
@@ -7068,10 +7177,10 @@
         <v>118</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="F23" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7082,11 +7191,15 @@
         <v>13°29'17"</v>
       </c>
       <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="K23" s="6"/>
+      <c r="I23" s="6">
+        <v>130</v>
+      </c>
+      <c r="J23" s="6">
+        <v>143000</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>526</v>
+      </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
@@ -7096,8 +7209,9 @@
       <c r="R23" s="6"/>
       <c r="S23" s="6"/>
       <c r="T23" s="6"/>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="6"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>160023</v>
       </c>
@@ -7111,7 +7225,7 @@
         <v>478</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="F24" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7122,12 +7236,17 @@
         <v>12°48'39"</v>
       </c>
       <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I24" s="6">
+        <v>150</v>
+      </c>
+      <c r="J24" s="6">
+        <v>12000</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>160024</v>
       </c>
@@ -7141,7 +7260,7 @@
         <v>478</v>
       </c>
       <c r="E25" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F25" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7152,12 +7271,17 @@
         <v>13°18'20"</v>
       </c>
       <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I25" s="6">
+        <v>260</v>
+      </c>
+      <c r="J25" s="6">
+        <v>138000</v>
+      </c>
+      <c r="K25" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>160025</v>
       </c>
@@ -7171,7 +7295,7 @@
         <v>478</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="F26" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7182,12 +7306,17 @@
         <v>13°23'44"</v>
       </c>
       <c r="H26" s="6"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I26" s="6">
+        <v>240</v>
+      </c>
+      <c r="J26" s="6">
+        <v>143000</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>160026</v>
       </c>
@@ -7201,7 +7330,7 @@
         <v>478</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="F27" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7212,12 +7341,17 @@
         <v>13°20'17"</v>
       </c>
       <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+      <c r="I27" s="6">
+        <v>140</v>
+      </c>
+      <c r="J27" s="6">
+        <v>16030</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>160027</v>
       </c>
@@ -7228,10 +7362,10 @@
         <v>456</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="F28" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7242,12 +7376,17 @@
         <v>13°09'15"</v>
       </c>
       <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I28" s="6">
+        <v>110</v>
+      </c>
+      <c r="J28" s="6">
+        <v>9800</v>
+      </c>
+      <c r="K28" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>160028</v>
       </c>
@@ -7261,7 +7400,7 @@
         <v>478</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F29" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7272,12 +7411,17 @@
         <v>13°19'54"</v>
       </c>
       <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I29" s="6">
+        <v>170</v>
+      </c>
+      <c r="J29" s="6">
+        <v>11000</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>160029</v>
       </c>
@@ -7291,7 +7435,7 @@
         <v>478</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="F30" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7302,12 +7446,17 @@
         <v>13°15'31"</v>
       </c>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="I30" s="6">
+        <v>280</v>
+      </c>
+      <c r="J30" s="6">
+        <v>178800</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>160030</v>
       </c>
@@ -7318,10 +7467,10 @@
         <v>462</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="F31" s="6" t="str">
         <f t="shared" si="0"/>
@@ -7332,9 +7481,14 @@
         <v>13°19'15"</v>
       </c>
       <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6" t="s">
-        <v>529</v>
+      <c r="I31" s="6">
+        <v>200</v>
+      </c>
+      <c r="J31" s="6">
+        <v>7200</v>
+      </c>
+      <c r="K31" s="6" t="s">
+        <v>526</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20870AF3-23A4-F04A-BC91-994B0D30CB52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D2F22-B9FA-4536-840F-265CC7497617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1040" windowWidth="19780" windowHeight="13440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="19785" windowHeight="13440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Critical_Infrastructure" sheetId="2" r:id="rId3"/>
     <sheet name="CI_Backup_Matrix" sheetId="4" r:id="rId4"/>
     <sheet name="BackupFacilities" sheetId="5" r:id="rId5"/>
+    <sheet name="Table 2 - CI Opening Costs" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="533">
   <si>
     <t>location_id</t>
   </si>
@@ -1635,6 +1636,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>warehouse_size (m2)</t>
+  </si>
+  <si>
+    <t>cost (USD $)</t>
   </si>
 </sst>
 </file>
@@ -1702,7 +1709,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1725,11 +1732,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1748,6 +1766,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2035,13 +2065,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.83203125" customWidth="1"/>
-    <col min="3" max="3" width="10.1640625" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2079,7 +2109,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2116,7 +2146,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2153,7 +2183,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2190,7 +2220,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2227,7 +2257,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2264,7 +2294,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2301,7 +2331,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2338,7 +2368,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2375,7 +2405,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2412,7 +2442,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2449,7 +2479,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2486,7 +2516,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2523,7 +2553,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2560,7 +2590,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2597,7 +2627,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2634,7 +2664,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -2671,7 +2701,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -2708,7 +2738,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -2745,7 +2775,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -2782,7 +2812,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2819,7 +2849,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -2856,7 +2886,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -2893,7 +2923,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -2930,7 +2960,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
@@ -2967,7 +2997,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -3004,7 +3034,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -3041,7 +3071,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -3078,7 +3108,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
@@ -3115,7 +3145,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
@@ -3152,7 +3182,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3189,7 +3219,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -3226,7 +3256,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
@@ -3263,7 +3293,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
@@ -3300,7 +3330,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3337,7 +3367,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>142</v>
       </c>
@@ -3374,7 +3404,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
@@ -3411,7 +3441,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3448,7 +3478,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3485,7 +3515,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>150</v>
       </c>
@@ -3522,7 +3552,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -3559,7 +3589,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -3596,7 +3626,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>173</v>
       </c>
@@ -3633,7 +3663,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>175</v>
       </c>
@@ -3670,7 +3700,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
@@ -3707,7 +3737,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>179</v>
       </c>
@@ -3744,7 +3774,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
@@ -3781,7 +3811,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
@@ -3818,7 +3848,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
@@ -3855,7 +3885,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>204</v>
       </c>
@@ -3892,7 +3922,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>206</v>
       </c>
@@ -3929,7 +3959,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
@@ -3966,7 +3996,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>210</v>
       </c>
@@ -4003,7 +4033,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>212</v>
       </c>
@@ -4040,7 +4070,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
@@ -4077,7 +4107,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>216</v>
       </c>
@@ -4114,7 +4144,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>218</v>
       </c>
@@ -4151,7 +4181,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>237</v>
       </c>
@@ -4188,7 +4218,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -4225,7 +4255,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>241</v>
       </c>
@@ -4262,7 +4292,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -4299,7 +4329,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>245</v>
       </c>
@@ -4336,7 +4366,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
@@ -4373,7 +4403,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
@@ -4410,7 +4440,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>251</v>
       </c>
@@ -4447,7 +4477,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>269</v>
       </c>
@@ -4484,7 +4514,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>271</v>
       </c>
@@ -4521,7 +4551,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>273</v>
       </c>
@@ -4558,7 +4588,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
@@ -4595,7 +4625,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>277</v>
       </c>
@@ -4632,7 +4662,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>279</v>
       </c>
@@ -4669,7 +4699,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>281</v>
       </c>
@@ -4706,7 +4736,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
@@ -4743,7 +4773,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>285</v>
       </c>
@@ -4780,7 +4810,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>287</v>
       </c>
@@ -4817,7 +4847,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -4854,7 +4884,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>291</v>
       </c>
@@ -4891,7 +4921,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>293</v>
       </c>
@@ -4928,7 +4958,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>295</v>
       </c>
@@ -4965,7 +4995,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>297</v>
       </c>
@@ -5002,7 +5032,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>299</v>
       </c>
@@ -5039,7 +5069,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>301</v>
       </c>
@@ -5076,7 +5106,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="22" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>303</v>
       </c>
@@ -5113,7 +5143,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>341</v>
       </c>
@@ -5150,7 +5180,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>343</v>
       </c>
@@ -5187,7 +5217,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>345</v>
       </c>
@@ -5224,7 +5254,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
@@ -5261,7 +5291,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>349</v>
       </c>
@@ -5298,7 +5328,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>351</v>
       </c>
@@ -5335,7 +5365,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>353</v>
       </c>
@@ -5372,7 +5402,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>355</v>
       </c>
@@ -5409,7 +5439,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
@@ -5446,7 +5476,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>376</v>
       </c>
@@ -5483,7 +5513,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>378</v>
       </c>
@@ -5520,7 +5550,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>380</v>
       </c>
@@ -5557,7 +5587,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
@@ -5594,7 +5624,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -5620,7 +5650,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>386</v>
       </c>
@@ -5646,7 +5676,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>400</v>
       </c>
@@ -5672,7 +5702,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>402</v>
       </c>
@@ -5698,7 +5728,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>404</v>
       </c>
@@ -5724,7 +5754,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>406</v>
       </c>
@@ -5750,7 +5780,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>408</v>
       </c>
@@ -5776,7 +5806,7 @@
         <v>15186</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>410</v>
       </c>
@@ -5802,7 +5832,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
@@ -5828,7 +5858,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>414</v>
       </c>
@@ -5854,7 +5884,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>416</v>
       </c>
@@ -5880,7 +5910,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>418</v>
       </c>
@@ -5906,7 +5936,7 @@
         <v>19224</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>420</v>
       </c>
@@ -5932,7 +5962,7 @@
         <v>12583</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>422</v>
       </c>
@@ -5958,7 +5988,7 @@
         <v>12084</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>449</v>
       </c>
@@ -5984,7 +6014,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>451</v>
       </c>
@@ -6010,7 +6040,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>453</v>
       </c>
@@ -6036,7 +6066,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>455</v>
       </c>
@@ -6062,7 +6092,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>457</v>
       </c>
@@ -6088,7 +6118,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>459</v>
       </c>
@@ -6114,7 +6144,7 @@
         <v>12061</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>461</v>
       </c>
@@ -6151,7 +6181,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6161,16 +6191,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="4" max="5" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>522</v>
       </c>
@@ -6215,7 +6246,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
         <v>160001</v>
       </c>
@@ -6262,7 +6293,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
         <v>160002</v>
       </c>
@@ -6307,7 +6338,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
         <v>160003</v>
       </c>
@@ -6352,7 +6383,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>160004</v>
       </c>
@@ -6397,7 +6428,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>160005</v>
       </c>
@@ -6442,7 +6473,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>160006</v>
       </c>
@@ -6487,7 +6518,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
         <v>160007</v>
       </c>
@@ -6532,7 +6563,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <v>160008</v>
       </c>
@@ -6577,7 +6608,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>160009</v>
       </c>
@@ -6622,7 +6653,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A11" s="6">
         <v>160010</v>
       </c>
@@ -6667,7 +6698,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A12" s="6">
         <v>160011</v>
       </c>
@@ -6714,7 +6745,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
         <v>160012</v>
       </c>
@@ -6759,7 +6790,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
         <v>160013</v>
       </c>
@@ -6804,7 +6835,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
         <v>160014</v>
       </c>
@@ -6849,7 +6880,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>160015</v>
       </c>
@@ -6894,7 +6925,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>160016</v>
       </c>
@@ -6939,7 +6970,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>160017</v>
       </c>
@@ -6984,7 +7015,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>160018</v>
       </c>
@@ -7029,7 +7060,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>160019</v>
       </c>
@@ -7074,7 +7105,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>160020</v>
       </c>
@@ -7121,7 +7152,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>160021</v>
       </c>
@@ -7166,7 +7197,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>160022</v>
       </c>
@@ -7211,7 +7242,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>160023</v>
       </c>
@@ -7246,7 +7277,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
         <v>160024</v>
       </c>
@@ -7281,7 +7312,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <v>160025</v>
       </c>
@@ -7316,7 +7347,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <v>160026</v>
       </c>
@@ -7351,7 +7382,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <v>160027</v>
       </c>
@@ -7386,7 +7417,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
         <v>160028</v>
       </c>
@@ -7421,7 +7452,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <v>160029</v>
       </c>
@@ -7456,7 +7487,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <v>160030</v>
       </c>
@@ -7502,7 +7533,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7512,10 +7543,190 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DCADC5-0E7A-4C0A-8568-C2276A384533}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B3E4E1-AF72-4EDE-A58C-07178A1B15EA}">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>524</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>532</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>160001</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="D2" s="11">
+        <v>250</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>160002</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D3" s="11">
+        <v>190</v>
+      </c>
+      <c r="E3" s="11">
+        <v>19500</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>160003</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="11">
+        <v>290</v>
+      </c>
+      <c r="E4" s="11">
+        <v>205550</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>160004</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D5" s="11">
+        <v>220</v>
+      </c>
+      <c r="E5" s="11">
+        <v>22000</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>160005</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="D6" s="11">
+        <v>210</v>
+      </c>
+      <c r="E6" s="11">
+        <v>155100</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>160006</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="D7" s="11">
+        <v>130</v>
+      </c>
+      <c r="E7" s="11">
+        <v>18000</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>160007</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>490</v>
+      </c>
+      <c r="D8" s="11">
+        <v>240</v>
+      </c>
+      <c r="E8" s="11">
+        <v>24500</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D2F22-B9FA-4536-840F-265CC7497617}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57DE1D-915B-45B7-8E8E-841A68D86AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="19785" windowHeight="13440" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="563">
   <si>
     <t>location_id</t>
   </si>
@@ -1642,6 +1642,96 @@
   </si>
   <si>
     <t>cost (USD $)</t>
+  </si>
+  <si>
+    <t>San JerÃ³nimo</t>
+  </si>
+  <si>
+    <t>San SebastiÃ¡n</t>
+  </si>
+  <si>
+    <t>30.10</t>
+  </si>
+  <si>
+    <t>27.62</t>
+  </si>
+  <si>
+    <t>50.62</t>
+  </si>
+  <si>
+    <t>59.04</t>
+  </si>
+  <si>
+    <t>19.25</t>
+  </si>
+  <si>
+    <t>24.87</t>
+  </si>
+  <si>
+    <t>43.12</t>
+  </si>
+  <si>
+    <t>51.25</t>
+  </si>
+  <si>
+    <t>15.26</t>
+  </si>
+  <si>
+    <t>13.06</t>
+  </si>
+  <si>
+    <t>25.08</t>
+  </si>
+  <si>
+    <t>43.10</t>
+  </si>
+  <si>
+    <t>51.55</t>
+  </si>
+  <si>
+    <t>7.44</t>
+  </si>
+  <si>
+    <t>38.75</t>
+  </si>
+  <si>
+    <t>37.97</t>
+  </si>
+  <si>
+    <t>60.91</t>
+  </si>
+  <si>
+    <t>69.30</t>
+  </si>
+  <si>
+    <t>25.71</t>
+  </si>
+  <si>
+    <t>33.65</t>
+  </si>
+  <si>
+    <t>32.04</t>
+  </si>
+  <si>
+    <t>63.41</t>
+  </si>
+  <si>
+    <t>19.73</t>
+  </si>
+  <si>
+    <t>29.17</t>
+  </si>
+  <si>
+    <t>27.32</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>58.40</t>
+  </si>
+  <si>
+    <t>14.85</t>
   </si>
 </sst>
 </file>
@@ -1747,7 +1837,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1778,6 +1868,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7555,10 +7651,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B3E4E1-AF72-4EDE-A58C-07178A1B15EA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F8"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7566,7 +7662,7 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>522</v>
       </c>
@@ -7586,7 +7682,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>160001</v>
       </c>
@@ -7606,7 +7702,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>160002</v>
       </c>
@@ -7626,7 +7722,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="11">
         <v>160003</v>
       </c>
@@ -7646,7 +7742,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>160004</v>
       </c>
@@ -7666,7 +7762,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>160005</v>
       </c>
@@ -7686,7 +7782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>160006</v>
       </c>
@@ -7706,7 +7802,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>160007</v>
       </c>
@@ -7724,6 +7820,144 @@
       </c>
       <c r="F8" s="11" t="s">
         <v>526</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>533</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>160011</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>539</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>545</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>549</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>160012</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="D13" s="13">
+        <v>19.8</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>555</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>160013</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>537</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>541</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>551</v>
+      </c>
+      <c r="F14" s="13">
+        <v>55.01</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>160014</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>538</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>542</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>160015</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>543</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>548</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>562</v>
       </c>
     </row>
   </sheetData>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ev693020\Github\Disaster-Modeling-Resilience\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B57DE1D-915B-45B7-8E8E-841A68D86AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF0E24-1A95-A449-815C-295642F417E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32540" yWindow="1560" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -2161,13 +2161,13 @@
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="9.85546875" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="S1" s="1"/>
       <c r="T1" s="1"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -2242,7 +2242,7 @@
       <c r="S2" s="1"/>
       <c r="T2" s="1"/>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
@@ -2279,7 +2279,7 @@
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2316,7 @@
       <c r="S4" s="1"/>
       <c r="T4" s="1"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
@@ -2353,7 +2353,7 @@
       <c r="S5" s="1"/>
       <c r="T5" s="1"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
@@ -2390,7 +2390,7 @@
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>18</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>20</v>
       </c>
@@ -2464,7 +2464,7 @@
       <c r="S8" s="1"/>
       <c r="T8" s="1"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>22</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="S9" s="1"/>
       <c r="T9" s="1"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>24</v>
       </c>
@@ -2538,7 +2538,7 @@
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -2575,7 +2575,7 @@
       <c r="S11" s="1"/>
       <c r="T11" s="1"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>28</v>
       </c>
@@ -2612,7 +2612,7 @@
       <c r="S12" s="1"/>
       <c r="T12" s="1"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
@@ -2649,7 +2649,7 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>32</v>
       </c>
@@ -2686,7 +2686,7 @@
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>34</v>
       </c>
@@ -2723,7 +2723,7 @@
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
@@ -2760,7 +2760,7 @@
       <c r="S16" s="1"/>
       <c r="T16" s="1"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>71</v>
       </c>
@@ -2797,7 +2797,7 @@
       <c r="S17" s="1"/>
       <c r="T17" s="1"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>75</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="S18" s="1"/>
       <c r="T18" s="1"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>79</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="S19" s="1"/>
       <c r="T19" s="1"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>83</v>
       </c>
@@ -2908,7 +2908,7 @@
       <c r="S20" s="1"/>
       <c r="T20" s="1"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>91</v>
       </c>
@@ -2982,7 +2982,7 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>95</v>
       </c>
@@ -3019,7 +3019,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>99</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>103</v>
       </c>
@@ -3093,7 +3093,7 @@
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>107</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>109</v>
       </c>
@@ -3167,7 +3167,7 @@
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>111</v>
       </c>
@@ -3204,7 +3204,7 @@
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>113</v>
       </c>
@@ -3241,7 +3241,7 @@
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>115</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>117</v>
       </c>
@@ -3315,7 +3315,7 @@
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>119</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>121</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>138</v>
       </c>
@@ -3426,7 +3426,7 @@
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>140</v>
       </c>
@@ -3463,7 +3463,7 @@
       <c r="S35" s="1"/>
       <c r="T35" s="1"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>142</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>144</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="S37" s="1"/>
       <c r="T37" s="1"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>146</v>
       </c>
@@ -3574,7 +3574,7 @@
       <c r="S38" s="1"/>
       <c r="T38" s="1"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>148</v>
       </c>
@@ -3611,7 +3611,7 @@
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>150</v>
       </c>
@@ -3648,7 +3648,7 @@
       <c r="S40" s="1"/>
       <c r="T40" s="1"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>152</v>
       </c>
@@ -3685,7 +3685,7 @@
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>171</v>
       </c>
@@ -3722,7 +3722,7 @@
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>173</v>
       </c>
@@ -3759,7 +3759,7 @@
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>175</v>
       </c>
@@ -3796,7 +3796,7 @@
       <c r="S44" s="1"/>
       <c r="T44" s="1"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>177</v>
       </c>
@@ -3833,7 +3833,7 @@
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>179</v>
       </c>
@@ -3870,7 +3870,7 @@
       <c r="S46" s="1"/>
       <c r="T46" s="1"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>181</v>
       </c>
@@ -3907,7 +3907,7 @@
       <c r="S47" s="1"/>
       <c r="T47" s="1"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>183</v>
       </c>
@@ -3944,7 +3944,7 @@
       <c r="S48" s="1"/>
       <c r="T48" s="1"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>185</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="S49" s="1"/>
       <c r="T49" s="1"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>204</v>
       </c>
@@ -4018,7 +4018,7 @@
       <c r="S50" s="1"/>
       <c r="T50" s="1"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>206</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>208</v>
       </c>
@@ -4092,7 +4092,7 @@
       <c r="S52" s="1"/>
       <c r="T52" s="1"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>210</v>
       </c>
@@ -4129,7 +4129,7 @@
       <c r="S53" s="1"/>
       <c r="T53" s="1"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>212</v>
       </c>
@@ -4166,7 +4166,7 @@
       <c r="S54" s="1"/>
       <c r="T54" s="1"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
         <v>214</v>
       </c>
@@ -4203,7 +4203,7 @@
       <c r="S55" s="1"/>
       <c r="T55" s="1"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
         <v>216</v>
       </c>
@@ -4240,7 +4240,7 @@
       <c r="S56" s="1"/>
       <c r="T56" s="1"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>218</v>
       </c>
@@ -4277,7 +4277,7 @@
       <c r="S57" s="1"/>
       <c r="T57" s="1"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>237</v>
       </c>
@@ -4314,7 +4314,7 @@
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>239</v>
       </c>
@@ -4351,7 +4351,7 @@
       <c r="S59" s="1"/>
       <c r="T59" s="1"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
         <v>241</v>
       </c>
@@ -4388,7 +4388,7 @@
       <c r="S60" s="1"/>
       <c r="T60" s="1"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>243</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="S61" s="1"/>
       <c r="T61" s="1"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>245</v>
       </c>
@@ -4462,7 +4462,7 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
         <v>247</v>
       </c>
@@ -4499,7 +4499,7 @@
       <c r="S63" s="1"/>
       <c r="T63" s="1"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
         <v>249</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="S64" s="1"/>
       <c r="T64" s="1"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>251</v>
       </c>
@@ -4573,7 +4573,7 @@
       <c r="S65" s="1"/>
       <c r="T65" s="1"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
         <v>269</v>
       </c>
@@ -4610,7 +4610,7 @@
       <c r="S66" s="1"/>
       <c r="T66" s="1"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
         <v>271</v>
       </c>
@@ -4647,7 +4647,7 @@
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>273</v>
       </c>
@@ -4684,7 +4684,7 @@
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>275</v>
       </c>
@@ -4721,7 +4721,7 @@
       <c r="S69" s="1"/>
       <c r="T69" s="1"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>277</v>
       </c>
@@ -4758,7 +4758,7 @@
       <c r="S70" s="1"/>
       <c r="T70" s="1"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>279</v>
       </c>
@@ -4795,7 +4795,7 @@
       <c r="S71" s="1"/>
       <c r="T71" s="1"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>281</v>
       </c>
@@ -4832,7 +4832,7 @@
       <c r="S72" s="1"/>
       <c r="T72" s="1"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>283</v>
       </c>
@@ -4869,7 +4869,7 @@
       <c r="S73" s="1"/>
       <c r="T73" s="1"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
         <v>285</v>
       </c>
@@ -4906,7 +4906,7 @@
       <c r="S74" s="1"/>
       <c r="T74" s="1"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>287</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="S75" s="1"/>
       <c r="T75" s="1"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>289</v>
       </c>
@@ -4980,7 +4980,7 @@
       <c r="S76" s="1"/>
       <c r="T76" s="1"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>291</v>
       </c>
@@ -5017,7 +5017,7 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>293</v>
       </c>
@@ -5054,7 +5054,7 @@
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>295</v>
       </c>
@@ -5091,7 +5091,7 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
     </row>
-    <row r="80" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>297</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>299</v>
       </c>
@@ -5165,7 +5165,7 @@
       <c r="S81" s="1"/>
       <c r="T81" s="1"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>301</v>
       </c>
@@ -5202,7 +5202,7 @@
       <c r="S82" s="1"/>
       <c r="T82" s="1"/>
     </row>
-    <row r="83" spans="1:20" ht="18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:20" ht="22" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
         <v>303</v>
       </c>
@@ -5239,7 +5239,7 @@
       <c r="S83" s="1"/>
       <c r="T83" s="1"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>341</v>
       </c>
@@ -5276,7 +5276,7 @@
       <c r="S84" s="1"/>
       <c r="T84" s="1"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>343</v>
       </c>
@@ -5313,7 +5313,7 @@
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>345</v>
       </c>
@@ -5350,7 +5350,7 @@
       <c r="S86" s="1"/>
       <c r="T86" s="1"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>347</v>
       </c>
@@ -5387,7 +5387,7 @@
       <c r="S87" s="1"/>
       <c r="T87" s="1"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>349</v>
       </c>
@@ -5424,7 +5424,7 @@
       <c r="S88" s="1"/>
       <c r="T88" s="1"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
         <v>351</v>
       </c>
@@ -5461,7 +5461,7 @@
       <c r="S89" s="1"/>
       <c r="T89" s="1"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>353</v>
       </c>
@@ -5498,7 +5498,7 @@
       <c r="S90" s="1"/>
       <c r="T90" s="1"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>355</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="S91" s="1"/>
       <c r="T91" s="1"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>357</v>
       </c>
@@ -5572,7 +5572,7 @@
       <c r="S92" s="1"/>
       <c r="T92" s="1"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>376</v>
       </c>
@@ -5609,7 +5609,7 @@
       <c r="S93" s="1"/>
       <c r="T93" s="1"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>378</v>
       </c>
@@ -5646,7 +5646,7 @@
       <c r="S94" s="1"/>
       <c r="T94" s="1"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>380</v>
       </c>
@@ -5683,7 +5683,7 @@
       <c r="S95" s="1"/>
       <c r="T95" s="1"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>382</v>
       </c>
@@ -5720,7 +5720,7 @@
       <c r="S96" s="1"/>
       <c r="T96" s="1"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>384</v>
       </c>
@@ -5746,7 +5746,7 @@
         <v>8001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>386</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>4924</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>400</v>
       </c>
@@ -5798,7 +5798,7 @@
         <v>12538</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
         <v>402</v>
       </c>
@@ -5824,7 +5824,7 @@
         <v>7382</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>404</v>
       </c>
@@ -5850,7 +5850,7 @@
         <v>2692</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>406</v>
       </c>
@@ -5876,7 +5876,7 @@
         <v>3197</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>408</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>15186</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>410</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>4645</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>412</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>5055</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>414</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>5510</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>416</v>
       </c>
@@ -6006,7 +6006,7 @@
         <v>5008</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>418</v>
       </c>
@@ -6032,7 +6032,7 @@
         <v>19224</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>420</v>
       </c>
@@ -6058,7 +6058,7 @@
         <v>12583</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>422</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>12084</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
         <v>449</v>
       </c>
@@ -6110,7 +6110,7 @@
         <v>24885</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
         <v>451</v>
       </c>
@@ -6136,7 +6136,7 @@
         <v>12825</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
         <v>453</v>
       </c>
@@ -6162,7 +6162,7 @@
         <v>6529</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
         <v>455</v>
       </c>
@@ -6188,7 +6188,7 @@
         <v>5761</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
         <v>457</v>
       </c>
@@ -6214,7 +6214,7 @@
         <v>6839</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
         <v>459</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>12061</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
         <v>461</v>
       </c>
@@ -6277,7 +6277,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6287,17 +6287,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C97BAFB-525F-42CF-A9A5-0D35515C64BF}">
   <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="5" width="15.140625" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
+    <col min="4" max="5" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>522</v>
       </c>
@@ -6342,7 +6342,7 @@
       <c r="T1" s="6"/>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="6">
         <v>160001</v>
       </c>
@@ -6389,7 +6389,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <v>160002</v>
       </c>
@@ -6434,7 +6434,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="6">
         <v>160003</v>
       </c>
@@ -6479,7 +6479,7 @@
       <c r="T4" s="6"/>
       <c r="U4" s="6"/>
     </row>
-    <row r="5" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="6">
         <v>160004</v>
       </c>
@@ -6524,7 +6524,7 @@
       <c r="T5" s="6"/>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="6">
         <v>160005</v>
       </c>
@@ -6569,7 +6569,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="6">
         <v>160006</v>
       </c>
@@ -6614,7 +6614,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="6">
         <v>160007</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>240</v>
       </c>
       <c r="J8" s="6">
-        <v>24500</v>
+        <v>23500</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>526</v>
@@ -6659,7 +6659,7 @@
       <c r="T8" s="6"/>
       <c r="U8" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="6">
         <v>160008</v>
       </c>
@@ -6704,7 +6704,7 @@
       <c r="T9" s="6"/>
       <c r="U9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="6">
         <v>160009</v>
       </c>
@@ -6733,7 +6733,7 @@
         <v>150</v>
       </c>
       <c r="J10" s="6">
-        <v>7500</v>
+        <v>18500</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>526</v>
@@ -6749,7 +6749,7 @@
       <c r="T10" s="6"/>
       <c r="U10" s="6"/>
     </row>
-    <row r="11" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A11" s="6">
         <v>160010</v>
       </c>
@@ -6794,7 +6794,7 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
     </row>
-    <row r="12" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="6">
         <v>160011</v>
       </c>
@@ -6841,7 +6841,7 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="6">
         <v>160012</v>
       </c>
@@ -6870,7 +6870,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="6">
-        <v>16800</v>
+        <v>18800</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>526</v>
@@ -6886,7 +6886,7 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>160013</v>
       </c>
@@ -6915,7 +6915,7 @@
         <v>170</v>
       </c>
       <c r="J14" s="6">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>526</v>
@@ -6931,7 +6931,7 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="6">
         <v>160014</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>110</v>
       </c>
       <c r="J15" s="6">
-        <v>15500</v>
+        <v>19500</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>526</v>
@@ -6976,7 +6976,7 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="6">
         <v>160015</v>
       </c>
@@ -7021,7 +7021,7 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="6">
         <v>160016</v>
       </c>
@@ -7050,7 +7050,7 @@
         <v>140</v>
       </c>
       <c r="J17" s="6">
-        <v>17900</v>
+        <v>18900</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>526</v>
@@ -7066,7 +7066,7 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="6">
         <v>160017</v>
       </c>
@@ -7111,7 +7111,7 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="6">
         <v>160018</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="6">
         <v>160019</v>
       </c>
@@ -7201,7 +7201,7 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A21" s="6">
         <v>160020</v>
       </c>
@@ -7248,7 +7248,7 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>160021</v>
       </c>
@@ -7293,7 +7293,7 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>160022</v>
       </c>
@@ -7322,7 +7322,7 @@
         <v>130</v>
       </c>
       <c r="J23" s="6">
-        <v>143000</v>
+        <v>19300</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>526</v>
@@ -7338,7 +7338,7 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="6">
         <v>160023</v>
       </c>
@@ -7367,13 +7367,13 @@
         <v>150</v>
       </c>
       <c r="J24" s="6">
-        <v>12000</v>
+        <v>21000</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="6">
         <v>160024</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>160025</v>
       </c>
@@ -7443,7 +7443,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="27" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="6">
         <v>160026</v>
       </c>
@@ -7472,13 +7472,13 @@
         <v>140</v>
       </c>
       <c r="J27" s="6">
-        <v>16030</v>
+        <v>20030</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A28" s="6">
         <v>160027</v>
       </c>
@@ -7507,13 +7507,13 @@
         <v>110</v>
       </c>
       <c r="J28" s="6">
-        <v>9800</v>
+        <v>19800</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="6">
         <v>160028</v>
       </c>
@@ -7542,13 +7542,13 @@
         <v>170</v>
       </c>
       <c r="J29" s="6">
-        <v>11000</v>
+        <v>21000</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="6">
         <v>160029</v>
       </c>
@@ -7583,7 +7583,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="6">
         <v>160030</v>
       </c>
@@ -7612,7 +7612,7 @@
         <v>200</v>
       </c>
       <c r="J31" s="6">
-        <v>7200</v>
+        <v>19200</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>526</v>
@@ -7629,7 +7629,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7643,7 +7643,7 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7653,16 +7653,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34B3E4E1-AF72-4EDE-A58C-07178A1B15EA}">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>522</v>
       </c>
@@ -7682,7 +7682,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="18.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="23" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11">
         <v>160001</v>
       </c>
@@ -7702,7 +7702,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>160002</v>
       </c>
@@ -7722,7 +7722,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>160003</v>
       </c>
@@ -7742,7 +7742,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="11">
         <v>160004</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>160005</v>
       </c>
@@ -7782,7 +7782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A7" s="11">
         <v>160006</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="22" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>160007</v>
       </c>
@@ -7822,7 +7822,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>522</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>160011</v>
       </c>
@@ -7868,7 +7868,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>160012</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>160013</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>160014</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>160015</v>
       </c>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAF0E24-1A95-A449-815C-295642F417E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32320391-B3B4-6A49-B6C5-582090A2247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32540" yWindow="1560" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6288,7 +6288,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6418,7 +6418,7 @@
         <v>190</v>
       </c>
       <c r="J3" s="6">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>526</v>
@@ -6508,7 +6508,7 @@
         <v>220</v>
       </c>
       <c r="J5" s="6">
-        <v>22000</v>
+        <v>20500</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>526</v>
@@ -6598,7 +6598,7 @@
         <v>130</v>
       </c>
       <c r="J7" s="6">
-        <v>18000</v>
+        <v>20500</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>526</v>
@@ -6643,7 +6643,7 @@
         <v>240</v>
       </c>
       <c r="J8" s="6">
-        <v>23500</v>
+        <v>20500</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>526</v>
@@ -6733,7 +6733,7 @@
         <v>150</v>
       </c>
       <c r="J10" s="6">
-        <v>18500</v>
+        <v>20500</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>526</v>
@@ -6870,7 +6870,7 @@
         <v>200</v>
       </c>
       <c r="J13" s="6">
-        <v>18800</v>
+        <v>20500</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>526</v>
@@ -6915,7 +6915,7 @@
         <v>170</v>
       </c>
       <c r="J14" s="6">
-        <v>24000</v>
+        <v>20500</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>526</v>
@@ -6960,7 +6960,7 @@
         <v>110</v>
       </c>
       <c r="J15" s="6">
-        <v>19500</v>
+        <v>20500</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>526</v>
@@ -7050,7 +7050,7 @@
         <v>140</v>
       </c>
       <c r="J17" s="6">
-        <v>18900</v>
+        <v>20500</v>
       </c>
       <c r="K17" s="6" t="s">
         <v>526</v>
@@ -7095,7 +7095,7 @@
         <v>230</v>
       </c>
       <c r="J18" s="6">
-        <v>20200</v>
+        <v>20500</v>
       </c>
       <c r="K18" s="6" t="s">
         <v>526</v>
@@ -7322,7 +7322,7 @@
         <v>130</v>
       </c>
       <c r="J23" s="6">
-        <v>19300</v>
+        <v>20500</v>
       </c>
       <c r="K23" s="6" t="s">
         <v>526</v>
@@ -7367,7 +7367,7 @@
         <v>150</v>
       </c>
       <c r="J24" s="6">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="K24" s="6" t="s">
         <v>526</v>
@@ -7472,7 +7472,7 @@
         <v>140</v>
       </c>
       <c r="J27" s="6">
-        <v>20030</v>
+        <v>20500</v>
       </c>
       <c r="K27" s="6" t="s">
         <v>526</v>
@@ -7507,7 +7507,7 @@
         <v>110</v>
       </c>
       <c r="J28" s="6">
-        <v>19800</v>
+        <v>20500</v>
       </c>
       <c r="K28" s="6" t="s">
         <v>526</v>
@@ -7542,7 +7542,7 @@
         <v>170</v>
       </c>
       <c r="J29" s="6">
-        <v>21000</v>
+        <v>20500</v>
       </c>
       <c r="K29" s="6" t="s">
         <v>526</v>
@@ -7612,7 +7612,7 @@
         <v>200</v>
       </c>
       <c r="J31" s="6">
-        <v>19200</v>
+        <v>20500</v>
       </c>
       <c r="K31" s="6" t="s">
         <v>526</v>

--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/enzovillafuerte/Documents/GitHub/Disaster-Modeling-Resilience/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32320391-B3B4-6A49-B6C5-582090A2247F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9F19604-84D1-EB42-B45A-C9DD9DF5399E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32540" yWindow="1560" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2860" yWindow="1120" windowWidth="23120" windowHeight="15580" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Population_Community" sheetId="1" r:id="rId1"/>
@@ -6288,7 +6288,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
